--- a/Files/Futures_raw__CLOSE_pivot.xlsx
+++ b/Files/Futures_raw__CLOSE_pivot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Instrument</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
   </si>
   <si>
     <t>2012-01-31</t>
@@ -773,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,37 +846,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>98.48</v>
+        <v>98.83</v>
       </c>
       <c r="C4">
-        <v>639</v>
+        <v>646.5</v>
       </c>
       <c r="D4">
-        <v>1737.8</v>
+        <v>1565.8</v>
       </c>
       <c r="E4">
-        <v>124.85</v>
+        <v>122.9</v>
       </c>
       <c r="F4">
-        <v>56.25</v>
+        <v>54.31</v>
       </c>
       <c r="G4">
-        <v>2.503</v>
+        <v>2.989</v>
       </c>
       <c r="H4">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="I4">
-        <v>685.95</v>
+        <v>655.6</v>
       </c>
       <c r="J4">
-        <v>1585.5</v>
+        <v>1399.7</v>
       </c>
       <c r="K4">
-        <v>33.233</v>
+        <v>27.875</v>
       </c>
       <c r="L4">
-        <v>666</v>
+        <v>652.75</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -881,37 +884,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>107.07</v>
+        <v>98.48</v>
       </c>
       <c r="C5">
-        <v>656.5</v>
+        <v>639</v>
       </c>
       <c r="D5">
-        <v>1709.9</v>
+        <v>1737.8</v>
       </c>
       <c r="E5">
-        <v>127.65</v>
+        <v>124.85</v>
       </c>
       <c r="F5">
-        <v>59.38</v>
+        <v>56.25</v>
       </c>
       <c r="G5">
-        <v>2.616</v>
+        <v>2.503</v>
       </c>
       <c r="H5">
-        <v>190.55</v>
+        <v>210</v>
       </c>
       <c r="I5">
-        <v>706.65</v>
+        <v>685.95</v>
       </c>
       <c r="J5">
-        <v>1691.1</v>
+        <v>1585.5</v>
       </c>
       <c r="K5">
-        <v>34.583</v>
+        <v>33.233</v>
       </c>
       <c r="L5">
-        <v>664.25</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -919,37 +922,37 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>103.02</v>
+        <v>107.07</v>
       </c>
       <c r="C6">
-        <v>644</v>
+        <v>656.5</v>
       </c>
       <c r="D6">
-        <v>1669.3</v>
+        <v>1709.9</v>
       </c>
       <c r="E6">
-        <v>120.45</v>
+        <v>127.65</v>
       </c>
       <c r="F6">
-        <v>61.5</v>
+        <v>59.38</v>
       </c>
       <c r="G6">
-        <v>2.126</v>
+        <v>2.616</v>
       </c>
       <c r="H6">
-        <v>164.5</v>
+        <v>190.55</v>
       </c>
       <c r="I6">
-        <v>653.15</v>
+        <v>706.65</v>
       </c>
       <c r="J6">
-        <v>1638.3</v>
+        <v>1691.1</v>
       </c>
       <c r="K6">
-        <v>32.469</v>
+        <v>34.583</v>
       </c>
       <c r="L6">
-        <v>660.75</v>
+        <v>664.25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -957,37 +960,37 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>104.87</v>
+        <v>103.02</v>
       </c>
       <c r="C7">
-        <v>660.25</v>
+        <v>644</v>
       </c>
       <c r="D7">
-        <v>1663.4</v>
+        <v>1669.3</v>
       </c>
       <c r="E7">
-        <v>118.75</v>
+        <v>120.45</v>
       </c>
       <c r="F7">
-        <v>57.87</v>
+        <v>61.5</v>
       </c>
       <c r="G7">
-        <v>2.285</v>
+        <v>2.126</v>
       </c>
       <c r="H7">
-        <v>140.85</v>
+        <v>164.5</v>
       </c>
       <c r="I7">
-        <v>681.75</v>
+        <v>653.15</v>
       </c>
       <c r="J7">
-        <v>1567.7</v>
+        <v>1638.3</v>
       </c>
       <c r="K7">
-        <v>30.959</v>
+        <v>32.469</v>
       </c>
       <c r="L7">
-        <v>647.75</v>
+        <v>660.75</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -995,37 +998,37 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>86.53</v>
+        <v>104.87</v>
       </c>
       <c r="C8">
-        <v>555.25</v>
+        <v>660.25</v>
       </c>
       <c r="D8">
-        <v>1562.6</v>
+        <v>1663.4</v>
       </c>
       <c r="E8">
-        <v>117.1</v>
+        <v>118.75</v>
       </c>
       <c r="F8">
-        <v>53.98</v>
+        <v>57.87</v>
       </c>
       <c r="G8">
-        <v>2.422</v>
+        <v>2.285</v>
       </c>
       <c r="H8">
-        <v>112.05</v>
+        <v>140.85</v>
       </c>
       <c r="I8">
-        <v>612.1</v>
+        <v>681.75</v>
       </c>
       <c r="J8">
-        <v>1416.1</v>
+        <v>1567.7</v>
       </c>
       <c r="K8">
-        <v>27.741</v>
+        <v>30.959</v>
       </c>
       <c r="L8">
-        <v>643.75</v>
+        <v>647.75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1033,37 +1036,37 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>84.95999999999999</v>
+        <v>86.53</v>
       </c>
       <c r="C9">
-        <v>672.5</v>
+        <v>555.25</v>
       </c>
       <c r="D9">
-        <v>1603.5</v>
+        <v>1562.6</v>
       </c>
       <c r="E9">
-        <v>116.55</v>
+        <v>117.1</v>
       </c>
       <c r="F9">
-        <v>55.57</v>
+        <v>53.98</v>
       </c>
       <c r="G9">
-        <v>2.824</v>
+        <v>2.422</v>
       </c>
       <c r="H9">
-        <v>122.65</v>
+        <v>112.05</v>
       </c>
       <c r="I9">
-        <v>583.05</v>
+        <v>612.1</v>
       </c>
       <c r="J9">
-        <v>1449.1</v>
+        <v>1416.1</v>
       </c>
       <c r="K9">
-        <v>27.58</v>
+        <v>27.741</v>
       </c>
       <c r="L9">
-        <v>739</v>
+        <v>643.75</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1071,37 +1074,37 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>88.06</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="C10">
-        <v>806.5</v>
+        <v>672.5</v>
       </c>
       <c r="D10">
-        <v>1610.5</v>
+        <v>1603.5</v>
       </c>
       <c r="E10">
-        <v>118.875</v>
+        <v>116.55</v>
       </c>
       <c r="F10">
-        <v>54.69</v>
+        <v>55.57</v>
       </c>
       <c r="G10">
-        <v>3.209</v>
+        <v>2.824</v>
       </c>
       <c r="H10">
-        <v>109.9</v>
+        <v>122.65</v>
       </c>
       <c r="I10">
-        <v>589.75</v>
+        <v>583.05</v>
       </c>
       <c r="J10">
-        <v>1415.4</v>
+        <v>1449.1</v>
       </c>
       <c r="K10">
-        <v>27.895</v>
+        <v>27.58</v>
       </c>
       <c r="L10">
-        <v>888.25</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1109,37 +1112,37 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>96.47</v>
+        <v>88.06</v>
       </c>
       <c r="C11">
-        <v>802.75</v>
+        <v>806.5</v>
       </c>
       <c r="D11">
-        <v>1684.6</v>
+        <v>1610.5</v>
       </c>
       <c r="E11">
-        <v>118.075</v>
+        <v>118.875</v>
       </c>
       <c r="F11">
-        <v>58.91</v>
+        <v>54.69</v>
       </c>
       <c r="G11">
-        <v>2.799</v>
+        <v>3.209</v>
       </c>
       <c r="H11">
-        <v>131.9</v>
+        <v>109.9</v>
       </c>
       <c r="I11">
-        <v>627.95</v>
+        <v>589.75</v>
       </c>
       <c r="J11">
-        <v>1536.3</v>
+        <v>1415.4</v>
       </c>
       <c r="K11">
-        <v>31.37</v>
+        <v>27.895</v>
       </c>
       <c r="L11">
-        <v>870</v>
+        <v>888.25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1147,37 +1150,37 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>92.19</v>
+        <v>96.47</v>
       </c>
       <c r="C12">
-        <v>756.25</v>
+        <v>802.75</v>
       </c>
       <c r="D12">
-        <v>1771.1</v>
+        <v>1684.6</v>
       </c>
       <c r="E12">
-        <v>122.075</v>
+        <v>118.075</v>
       </c>
       <c r="F12">
-        <v>62.07</v>
+        <v>58.91</v>
       </c>
       <c r="G12">
-        <v>3.32</v>
+        <v>2.799</v>
       </c>
       <c r="H12">
-        <v>113.15</v>
+        <v>131.9</v>
       </c>
       <c r="I12">
-        <v>639.65</v>
+        <v>627.95</v>
       </c>
       <c r="J12">
-        <v>1665.3</v>
+        <v>1536.3</v>
       </c>
       <c r="K12">
-        <v>34.517</v>
+        <v>31.37</v>
       </c>
       <c r="L12">
-        <v>902.5</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1185,37 +1188,37 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>86.23999999999999</v>
+        <v>92.19</v>
       </c>
       <c r="C13">
-        <v>755.75</v>
+        <v>756.25</v>
       </c>
       <c r="D13">
-        <v>1717.5</v>
+        <v>1771.1</v>
       </c>
       <c r="E13">
-        <v>126.75</v>
+        <v>122.075</v>
       </c>
       <c r="F13">
-        <v>66.34</v>
+        <v>62.07</v>
       </c>
       <c r="G13">
-        <v>3.692</v>
+        <v>3.32</v>
       </c>
       <c r="H13">
-        <v>106.25</v>
+        <v>113.15</v>
       </c>
       <c r="I13">
-        <v>609</v>
+        <v>639.65</v>
       </c>
       <c r="J13">
-        <v>1576</v>
+        <v>1665.3</v>
       </c>
       <c r="K13">
-        <v>32.288</v>
+        <v>34.517</v>
       </c>
       <c r="L13">
-        <v>864.5</v>
+        <v>902.5</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1223,37 +1226,37 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>88.91</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C14">
-        <v>748</v>
+        <v>755.75</v>
       </c>
       <c r="D14">
-        <v>1710.9</v>
+        <v>1717.5</v>
       </c>
       <c r="E14">
-        <v>126.725</v>
+        <v>126.75</v>
       </c>
       <c r="F14">
-        <v>67.66</v>
+        <v>66.34</v>
       </c>
       <c r="G14">
-        <v>3.561</v>
+        <v>3.692</v>
       </c>
       <c r="H14">
-        <v>123.25</v>
+        <v>106.25</v>
       </c>
       <c r="I14">
-        <v>686.25</v>
+        <v>609</v>
       </c>
       <c r="J14">
-        <v>1603.1</v>
+        <v>1576</v>
       </c>
       <c r="K14">
-        <v>33.204</v>
+        <v>32.288</v>
       </c>
       <c r="L14">
-        <v>844.75</v>
+        <v>864.5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1261,37 +1264,37 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>91.81999999999999</v>
+        <v>88.91</v>
       </c>
       <c r="C15">
-        <v>698.25</v>
+        <v>748</v>
       </c>
       <c r="D15">
-        <v>1674.8</v>
+        <v>1710.9</v>
       </c>
       <c r="E15">
-        <v>129.9</v>
+        <v>126.725</v>
       </c>
       <c r="F15">
-        <v>64.51000000000001</v>
+        <v>67.66</v>
       </c>
       <c r="G15">
-        <v>3.351</v>
+        <v>3.561</v>
       </c>
       <c r="H15">
-        <v>116.05</v>
+        <v>123.25</v>
       </c>
       <c r="I15">
-        <v>702.65</v>
+        <v>686.25</v>
       </c>
       <c r="J15">
-        <v>1538.7</v>
+        <v>1603.1</v>
       </c>
       <c r="K15">
-        <v>30.173</v>
+        <v>33.204</v>
       </c>
       <c r="L15">
-        <v>778</v>
+        <v>844.75</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1299,37 +1302,37 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>97.48999999999999</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="C16">
-        <v>740.5</v>
+        <v>698.25</v>
       </c>
       <c r="D16">
-        <v>1660.6</v>
+        <v>1674.8</v>
       </c>
       <c r="E16">
-        <v>127.625</v>
+        <v>129.9</v>
       </c>
       <c r="F16">
-        <v>64.94</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="G16">
-        <v>3.339</v>
+        <v>3.351</v>
       </c>
       <c r="H16">
-        <v>119.7</v>
+        <v>116.05</v>
       </c>
       <c r="I16">
-        <v>745.3</v>
+        <v>702.65</v>
       </c>
       <c r="J16">
-        <v>1673.9</v>
+        <v>1538.7</v>
       </c>
       <c r="K16">
-        <v>31.335</v>
+        <v>30.173</v>
       </c>
       <c r="L16">
-        <v>779.5</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1337,37 +1340,37 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>92.05</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="C17">
-        <v>719.5</v>
+        <v>740.5</v>
       </c>
       <c r="D17">
-        <v>1577.7</v>
+        <v>1660.6</v>
       </c>
       <c r="E17">
-        <v>128</v>
+        <v>127.625</v>
       </c>
       <c r="F17">
-        <v>67.33</v>
+        <v>64.94</v>
       </c>
       <c r="G17">
-        <v>3.486</v>
+        <v>3.339</v>
       </c>
       <c r="H17">
-        <v>127.15</v>
+        <v>119.7</v>
       </c>
       <c r="I17">
-        <v>732.6</v>
+        <v>745.3</v>
       </c>
       <c r="J17">
-        <v>1582.4</v>
+        <v>1673.9</v>
       </c>
       <c r="K17">
-        <v>28.395</v>
+        <v>31.335</v>
       </c>
       <c r="L17">
-        <v>707.75</v>
+        <v>779.5</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1375,37 +1378,37 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>97.23</v>
+        <v>92.05</v>
       </c>
       <c r="C18">
-        <v>695.25</v>
+        <v>719.5</v>
       </c>
       <c r="D18">
-        <v>1594.8</v>
+        <v>1577.7</v>
       </c>
       <c r="E18">
-        <v>128.9</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>67.75</v>
+        <v>67.33</v>
       </c>
       <c r="G18">
-        <v>4.024</v>
+        <v>3.486</v>
       </c>
       <c r="H18">
-        <v>135.15</v>
+        <v>127.15</v>
       </c>
       <c r="I18">
-        <v>767.1</v>
+        <v>732.6</v>
       </c>
       <c r="J18">
-        <v>1571.2</v>
+        <v>1582.4</v>
       </c>
       <c r="K18">
-        <v>28.292</v>
+        <v>28.395</v>
       </c>
       <c r="L18">
-        <v>687.75</v>
+        <v>707.75</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1413,37 +1416,37 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>93.45999999999999</v>
+        <v>97.23</v>
       </c>
       <c r="C19">
-        <v>683.25</v>
+        <v>695.25</v>
       </c>
       <c r="D19">
-        <v>1472.2</v>
+        <v>1594.8</v>
       </c>
       <c r="E19">
-        <v>128.4</v>
+        <v>128.9</v>
       </c>
       <c r="F19">
-        <v>63.93</v>
+        <v>67.75</v>
       </c>
       <c r="G19">
-        <v>4.343</v>
+        <v>4.024</v>
       </c>
       <c r="H19">
-        <v>141.4</v>
+        <v>135.15</v>
       </c>
       <c r="I19">
-        <v>696.7</v>
+        <v>767.1</v>
       </c>
       <c r="J19">
-        <v>1505.4</v>
+        <v>1571.2</v>
       </c>
       <c r="K19">
-        <v>24.144</v>
+        <v>28.292</v>
       </c>
       <c r="L19">
-        <v>721.75</v>
+        <v>687.75</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1451,37 +1454,37 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>91.97</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="C20">
-        <v>662</v>
+        <v>683.25</v>
       </c>
       <c r="D20">
-        <v>1392.6</v>
+        <v>1472.2</v>
       </c>
       <c r="E20">
-        <v>121.3</v>
+        <v>128.4</v>
       </c>
       <c r="F20">
-        <v>65.13</v>
+        <v>63.93</v>
       </c>
       <c r="G20">
-        <v>3.984</v>
+        <v>4.343</v>
       </c>
       <c r="H20">
-        <v>151.35</v>
+        <v>141.4</v>
       </c>
       <c r="I20">
-        <v>751.05</v>
+        <v>696.7</v>
       </c>
       <c r="J20">
-        <v>1460.6</v>
+        <v>1505.4</v>
       </c>
       <c r="K20">
-        <v>22.228</v>
+        <v>24.144</v>
       </c>
       <c r="L20">
-        <v>705.5</v>
+        <v>721.75</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1489,37 +1492,37 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>96.56</v>
+        <v>91.97</v>
       </c>
       <c r="C21">
-        <v>679.25</v>
+        <v>662</v>
       </c>
       <c r="D21">
-        <v>1223.8</v>
+        <v>1392.6</v>
       </c>
       <c r="E21">
-        <v>118.15</v>
+        <v>121.3</v>
       </c>
       <c r="F21">
-        <v>65.02</v>
+        <v>65.13</v>
       </c>
       <c r="G21">
-        <v>3.565</v>
+        <v>3.984</v>
       </c>
       <c r="H21">
-        <v>129.9</v>
+        <v>151.35</v>
       </c>
       <c r="I21">
-        <v>659.2</v>
+        <v>751.05</v>
       </c>
       <c r="J21">
-        <v>1336.9</v>
+        <v>1460.6</v>
       </c>
       <c r="K21">
-        <v>19.451</v>
+        <v>22.228</v>
       </c>
       <c r="L21">
-        <v>648.5</v>
+        <v>705.5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1527,37 +1530,37 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>105.03</v>
+        <v>96.56</v>
       </c>
       <c r="C22">
-        <v>499</v>
+        <v>679.25</v>
       </c>
       <c r="D22">
-        <v>1312.4</v>
+        <v>1223.8</v>
       </c>
       <c r="E22">
-        <v>121.45</v>
+        <v>118.15</v>
       </c>
       <c r="F22">
-        <v>66.27</v>
+        <v>65.02</v>
       </c>
       <c r="G22">
-        <v>3.446</v>
+        <v>3.565</v>
       </c>
       <c r="H22">
-        <v>143.9</v>
+        <v>129.9</v>
       </c>
       <c r="I22">
-        <v>725.45</v>
+        <v>659.2</v>
       </c>
       <c r="J22">
-        <v>1428.4</v>
+        <v>1336.9</v>
       </c>
       <c r="K22">
-        <v>19.617</v>
+        <v>19.451</v>
       </c>
       <c r="L22">
-        <v>664.25</v>
+        <v>648.5</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1565,37 +1568,37 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>107.65</v>
+        <v>105.03</v>
       </c>
       <c r="C23">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D23">
-        <v>1396.1</v>
+        <v>1312.4</v>
       </c>
       <c r="E23">
-        <v>122.7</v>
+        <v>121.45</v>
       </c>
       <c r="F23">
-        <v>65.19</v>
+        <v>66.27</v>
       </c>
       <c r="G23">
-        <v>3.581</v>
+        <v>3.446</v>
       </c>
       <c r="H23">
-        <v>136.95</v>
+        <v>143.9</v>
       </c>
       <c r="I23">
-        <v>722.1</v>
+        <v>725.45</v>
       </c>
       <c r="J23">
-        <v>1526.2</v>
+        <v>1428.4</v>
       </c>
       <c r="K23">
-        <v>23.463</v>
+        <v>19.617</v>
       </c>
       <c r="L23">
-        <v>643.25</v>
+        <v>664.25</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1603,37 +1606,37 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>102.33</v>
+        <v>107.65</v>
       </c>
       <c r="C24">
-        <v>441.5</v>
+        <v>495</v>
       </c>
       <c r="D24">
-        <v>1326.5</v>
+        <v>1396.1</v>
       </c>
       <c r="E24">
-        <v>127.85</v>
+        <v>122.7</v>
       </c>
       <c r="F24">
-        <v>67.83</v>
+        <v>65.19</v>
       </c>
       <c r="G24">
-        <v>3.56</v>
+        <v>3.581</v>
       </c>
       <c r="H24">
-        <v>131.3</v>
+        <v>136.95</v>
       </c>
       <c r="I24">
-        <v>726.15</v>
+        <v>722.1</v>
       </c>
       <c r="J24">
-        <v>1408.1</v>
+        <v>1526.2</v>
       </c>
       <c r="K24">
-        <v>21.656</v>
+        <v>23.463</v>
       </c>
       <c r="L24">
-        <v>678.5</v>
+        <v>643.25</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1641,37 +1644,37 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>96.38</v>
+        <v>102.33</v>
       </c>
       <c r="C25">
-        <v>428.25</v>
+        <v>441.5</v>
       </c>
       <c r="D25">
-        <v>1323.6</v>
+        <v>1326.5</v>
       </c>
       <c r="E25">
-        <v>134.5</v>
+        <v>127.85</v>
       </c>
       <c r="F25">
-        <v>70</v>
+        <v>67.83</v>
       </c>
       <c r="G25">
-        <v>3.581</v>
+        <v>3.56</v>
       </c>
       <c r="H25">
-        <v>121.55</v>
+        <v>131.3</v>
       </c>
       <c r="I25">
-        <v>736.25</v>
+        <v>726.15</v>
       </c>
       <c r="J25">
-        <v>1445.9</v>
+        <v>1408.1</v>
       </c>
       <c r="K25">
-        <v>21.832</v>
+        <v>21.656</v>
       </c>
       <c r="L25">
-        <v>667.5</v>
+        <v>678.5</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1679,37 +1682,37 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>92.72</v>
+        <v>96.38</v>
       </c>
       <c r="C26">
-        <v>415.25</v>
+        <v>428.25</v>
       </c>
       <c r="D26">
-        <v>1250.6</v>
+        <v>1323.6</v>
       </c>
       <c r="E26">
-        <v>133.475</v>
+        <v>134.5</v>
       </c>
       <c r="F26">
-        <v>71.59</v>
+        <v>70</v>
       </c>
       <c r="G26">
-        <v>3.954</v>
+        <v>3.581</v>
       </c>
       <c r="H26">
-        <v>139.7</v>
+        <v>121.55</v>
       </c>
       <c r="I26">
-        <v>718</v>
+        <v>736.25</v>
       </c>
       <c r="J26">
-        <v>1367.9</v>
+        <v>1445.9</v>
       </c>
       <c r="K26">
-        <v>19.981</v>
+        <v>21.832</v>
       </c>
       <c r="L26">
-        <v>655</v>
+        <v>667.5</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1717,37 +1720,37 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>98.42</v>
+        <v>92.72</v>
       </c>
       <c r="C27">
-        <v>422</v>
+        <v>415.25</v>
       </c>
       <c r="D27">
-        <v>1201.9</v>
+        <v>1250.6</v>
       </c>
       <c r="E27">
-        <v>134.5</v>
+        <v>133.475</v>
       </c>
       <c r="F27">
-        <v>68.91</v>
+        <v>71.59</v>
       </c>
       <c r="G27">
-        <v>4.23</v>
+        <v>3.954</v>
       </c>
       <c r="H27">
-        <v>136.45</v>
+        <v>139.7</v>
       </c>
       <c r="I27">
-        <v>717.4</v>
+        <v>718</v>
       </c>
       <c r="J27">
-        <v>1371.1</v>
+        <v>1367.9</v>
       </c>
       <c r="K27">
-        <v>19.339</v>
+        <v>19.981</v>
       </c>
       <c r="L27">
-        <v>605.25</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1755,37 +1758,37 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>97.48999999999999</v>
+        <v>98.42</v>
       </c>
       <c r="C28">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D28">
-        <v>1240.1</v>
+        <v>1201.9</v>
       </c>
       <c r="E28">
-        <v>141.675</v>
+        <v>134.5</v>
       </c>
       <c r="F28">
-        <v>61.12</v>
+        <v>68.91</v>
       </c>
       <c r="G28">
-        <v>4.943</v>
+        <v>4.23</v>
       </c>
       <c r="H28">
-        <v>142.55</v>
+        <v>136.45</v>
       </c>
       <c r="I28">
-        <v>703</v>
+        <v>717.4</v>
       </c>
       <c r="J28">
-        <v>1374.1</v>
+        <v>1371.1</v>
       </c>
       <c r="K28">
-        <v>19.105</v>
+        <v>19.339</v>
       </c>
       <c r="L28">
-        <v>555.75</v>
+        <v>605.25</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1793,37 +1796,37 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>102.59</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="C29">
-        <v>457.5</v>
+        <v>434</v>
       </c>
       <c r="D29">
-        <v>1321.4</v>
+        <v>1240.1</v>
       </c>
       <c r="E29">
-        <v>151.95</v>
+        <v>141.675</v>
       </c>
       <c r="F29">
-        <v>56.15</v>
+        <v>61.12</v>
       </c>
       <c r="G29">
-        <v>4.609</v>
+        <v>4.943</v>
       </c>
       <c r="H29">
-        <v>147.75</v>
+        <v>142.55</v>
       </c>
       <c r="I29">
-        <v>743.85</v>
+        <v>703</v>
       </c>
       <c r="J29">
-        <v>1446.2</v>
+        <v>1374.1</v>
       </c>
       <c r="K29">
-        <v>21.204</v>
+        <v>19.105</v>
       </c>
       <c r="L29">
-        <v>599</v>
+        <v>555.75</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1831,37 +1834,37 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>101.58</v>
+        <v>102.59</v>
       </c>
       <c r="C30">
-        <v>502</v>
+        <v>457.5</v>
       </c>
       <c r="D30">
-        <v>1283.4</v>
+        <v>1321.4</v>
       </c>
       <c r="E30">
-        <v>145.85</v>
+        <v>151.95</v>
       </c>
       <c r="F30">
-        <v>51.27</v>
+        <v>56.15</v>
       </c>
       <c r="G30">
-        <v>4.371</v>
+        <v>4.609</v>
       </c>
       <c r="H30">
-        <v>155</v>
+        <v>147.75</v>
       </c>
       <c r="I30">
-        <v>777.5</v>
+        <v>743.85</v>
       </c>
       <c r="J30">
-        <v>1418.5</v>
+        <v>1446.2</v>
       </c>
       <c r="K30">
-        <v>19.734</v>
+        <v>21.204</v>
       </c>
       <c r="L30">
-        <v>697.25</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1869,37 +1872,37 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>99.73999999999999</v>
+        <v>101.58</v>
       </c>
       <c r="C31">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D31">
-        <v>1295.6</v>
+        <v>1283.4</v>
       </c>
       <c r="E31">
-        <v>145.825</v>
+        <v>145.85</v>
       </c>
       <c r="F31">
-        <v>46.27</v>
+        <v>51.27</v>
       </c>
       <c r="G31">
-        <v>4.815</v>
+        <v>4.371</v>
       </c>
       <c r="H31">
-        <v>154.6</v>
+        <v>155</v>
       </c>
       <c r="I31">
-        <v>812.65</v>
+        <v>777.5</v>
       </c>
       <c r="J31">
-        <v>1426.6</v>
+        <v>1418.5</v>
       </c>
       <c r="K31">
-        <v>19.119</v>
+        <v>19.734</v>
       </c>
       <c r="L31">
-        <v>713</v>
+        <v>697.25</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1907,37 +1910,37 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>102.71</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C32">
-        <v>465.75</v>
+        <v>514</v>
       </c>
       <c r="D32">
-        <v>1245.6</v>
+        <v>1295.6</v>
       </c>
       <c r="E32">
-        <v>137.8</v>
+        <v>145.825</v>
       </c>
       <c r="F32">
-        <v>44.14</v>
+        <v>46.27</v>
       </c>
       <c r="G32">
-        <v>4.542</v>
+        <v>4.815</v>
       </c>
       <c r="H32">
-        <v>159.4</v>
+        <v>154.6</v>
       </c>
       <c r="I32">
-        <v>835.65</v>
+        <v>812.65</v>
       </c>
       <c r="J32">
-        <v>1454.7</v>
+        <v>1426.6</v>
       </c>
       <c r="K32">
-        <v>18.653</v>
+        <v>19.119</v>
       </c>
       <c r="L32">
-        <v>627.25</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1945,37 +1948,37 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>105.37</v>
+        <v>102.71</v>
       </c>
       <c r="C33">
-        <v>424.25</v>
+        <v>465.75</v>
       </c>
       <c r="D33">
-        <v>1321.8</v>
+        <v>1245.6</v>
       </c>
       <c r="E33">
-        <v>153</v>
+        <v>137.8</v>
       </c>
       <c r="F33">
-        <v>39.6</v>
+        <v>44.14</v>
       </c>
       <c r="G33">
-        <v>4.461</v>
+        <v>4.542</v>
       </c>
       <c r="H33">
-        <v>140.8</v>
+        <v>159.4</v>
       </c>
       <c r="I33">
-        <v>843.55</v>
+        <v>835.65</v>
       </c>
       <c r="J33">
-        <v>1481</v>
+        <v>1454.7</v>
       </c>
       <c r="K33">
-        <v>21.007</v>
+        <v>18.653</v>
       </c>
       <c r="L33">
-        <v>564.75</v>
+        <v>627.25</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1983,37 +1986,37 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>98.17</v>
+        <v>105.37</v>
       </c>
       <c r="C34">
-        <v>357</v>
+        <v>424.25</v>
       </c>
       <c r="D34">
-        <v>1281.3</v>
+        <v>1321.8</v>
       </c>
       <c r="E34">
-        <v>157.925</v>
+        <v>153</v>
       </c>
       <c r="F34">
-        <v>41.51</v>
+        <v>39.6</v>
       </c>
       <c r="G34">
-        <v>3.841</v>
+        <v>4.461</v>
       </c>
       <c r="H34">
-        <v>140.7</v>
+        <v>140.8</v>
       </c>
       <c r="I34">
-        <v>874.65</v>
+        <v>843.55</v>
       </c>
       <c r="J34">
-        <v>1465.7</v>
+        <v>1481</v>
       </c>
       <c r="K34">
-        <v>20.373</v>
+        <v>21.007</v>
       </c>
       <c r="L34">
-        <v>530.25</v>
+        <v>564.75</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2021,37 +2024,37 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>95.95999999999999</v>
+        <v>98.17</v>
       </c>
       <c r="C35">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D35">
-        <v>1285.8</v>
+        <v>1281.3</v>
       </c>
       <c r="E35">
-        <v>155.9</v>
+        <v>157.925</v>
       </c>
       <c r="F35">
-        <v>51.1</v>
+        <v>41.51</v>
       </c>
       <c r="G35">
-        <v>4.065</v>
+        <v>3.841</v>
       </c>
       <c r="H35">
-        <v>148.55</v>
+        <v>140.7</v>
       </c>
       <c r="I35">
-        <v>908.65</v>
+        <v>874.65</v>
       </c>
       <c r="J35">
-        <v>1426.7</v>
+        <v>1465.7</v>
       </c>
       <c r="K35">
-        <v>19.398</v>
+        <v>20.373</v>
       </c>
       <c r="L35">
-        <v>550.25</v>
+        <v>530.25</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2059,37 +2062,37 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>91.16</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C36">
-        <v>320.75</v>
+        <v>359</v>
       </c>
       <c r="D36">
-        <v>1210.5</v>
+        <v>1285.8</v>
       </c>
       <c r="E36">
-        <v>160.45</v>
+        <v>155.9</v>
       </c>
       <c r="F36">
-        <v>55.79</v>
+        <v>51.1</v>
       </c>
       <c r="G36">
-        <v>4.121</v>
+        <v>4.065</v>
       </c>
       <c r="H36">
-        <v>144.75</v>
+        <v>148.55</v>
       </c>
       <c r="I36">
-        <v>774.95</v>
+        <v>908.65</v>
       </c>
       <c r="J36">
-        <v>1298.5</v>
+        <v>1426.7</v>
       </c>
       <c r="K36">
-        <v>17.006</v>
+        <v>19.398</v>
       </c>
       <c r="L36">
-        <v>477.75</v>
+        <v>550.25</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2097,37 +2100,37 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>80.54000000000001</v>
+        <v>91.16</v>
       </c>
       <c r="C37">
-        <v>376.75</v>
+        <v>320.75</v>
       </c>
       <c r="D37">
-        <v>1171.1</v>
+        <v>1210.5</v>
       </c>
       <c r="E37">
-        <v>169.5</v>
+        <v>160.45</v>
       </c>
       <c r="F37">
-        <v>54.07</v>
+        <v>55.79</v>
       </c>
       <c r="G37">
-        <v>3.873</v>
+        <v>4.121</v>
       </c>
       <c r="H37">
-        <v>133.65</v>
+        <v>144.75</v>
       </c>
       <c r="I37">
-        <v>791.45</v>
+        <v>774.95</v>
       </c>
       <c r="J37">
-        <v>1236.2</v>
+        <v>1298.5</v>
       </c>
       <c r="K37">
-        <v>16.077</v>
+        <v>17.006</v>
       </c>
       <c r="L37">
-        <v>532.5</v>
+        <v>477.75</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2135,37 +2138,37 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>66.15000000000001</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C38">
-        <v>375.75</v>
+        <v>376.75</v>
       </c>
       <c r="D38">
-        <v>1175.2</v>
+        <v>1171.1</v>
       </c>
       <c r="E38">
-        <v>168.875</v>
+        <v>169.5</v>
       </c>
       <c r="F38">
-        <v>58.27</v>
+        <v>54.07</v>
       </c>
       <c r="G38">
-        <v>4.088</v>
+        <v>3.873</v>
       </c>
       <c r="H38">
-        <v>148.85</v>
+        <v>133.65</v>
       </c>
       <c r="I38">
-        <v>812.4</v>
+        <v>791.45</v>
       </c>
       <c r="J38">
-        <v>1210.4</v>
+        <v>1236.2</v>
       </c>
       <c r="K38">
-        <v>15.489</v>
+        <v>16.077</v>
       </c>
       <c r="L38">
-        <v>577.25</v>
+        <v>532.5</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2173,37 +2176,37 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>53.27</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C39">
-        <v>397</v>
+        <v>375.75</v>
       </c>
       <c r="D39">
-        <v>1183.9</v>
+        <v>1175.2</v>
       </c>
       <c r="E39">
-        <v>165.7</v>
+        <v>168.875</v>
       </c>
       <c r="F39">
-        <v>49.81</v>
+        <v>58.27</v>
       </c>
       <c r="G39">
-        <v>2.889</v>
+        <v>4.088</v>
       </c>
       <c r="H39">
-        <v>140.05</v>
+        <v>148.85</v>
       </c>
       <c r="I39">
-        <v>798.4</v>
+        <v>812.4</v>
       </c>
       <c r="J39">
-        <v>1208.9</v>
+        <v>1210.4</v>
       </c>
       <c r="K39">
-        <v>15.565</v>
+        <v>15.489</v>
       </c>
       <c r="L39">
-        <v>589.75</v>
+        <v>577.25</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2211,37 +2214,37 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>48.24</v>
+        <v>53.27</v>
       </c>
       <c r="C40">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="D40">
-        <v>1278.5</v>
+        <v>1183.9</v>
       </c>
       <c r="E40">
-        <v>154.85</v>
+        <v>165.7</v>
       </c>
       <c r="F40">
-        <v>45.86</v>
+        <v>49.81</v>
       </c>
       <c r="G40">
-        <v>2.691</v>
+        <v>2.889</v>
       </c>
       <c r="H40">
-        <v>140</v>
+        <v>140.05</v>
       </c>
       <c r="I40">
-        <v>772.7</v>
+        <v>798.4</v>
       </c>
       <c r="J40">
-        <v>1239.2</v>
+        <v>1208.9</v>
       </c>
       <c r="K40">
-        <v>17.192</v>
+        <v>15.565</v>
       </c>
       <c r="L40">
-        <v>502.75</v>
+        <v>589.75</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2249,37 +2252,37 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>49.76</v>
+        <v>48.24</v>
       </c>
       <c r="C41">
-        <v>384.5</v>
+        <v>370</v>
       </c>
       <c r="D41">
-        <v>1212.6</v>
+        <v>1278.5</v>
       </c>
       <c r="E41">
-        <v>158</v>
+        <v>154.85</v>
       </c>
       <c r="F41">
-        <v>50.03</v>
+        <v>45.86</v>
       </c>
       <c r="G41">
-        <v>2.734</v>
+        <v>2.691</v>
       </c>
       <c r="H41">
-        <v>121.55</v>
+        <v>140</v>
       </c>
       <c r="I41">
-        <v>818.45</v>
+        <v>772.7</v>
       </c>
       <c r="J41">
-        <v>1186.7</v>
+        <v>1239.2</v>
       </c>
       <c r="K41">
-        <v>16.513</v>
+        <v>17.192</v>
       </c>
       <c r="L41">
-        <v>517.5</v>
+        <v>502.75</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2287,37 +2290,37 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>47.6</v>
+        <v>49.76</v>
       </c>
       <c r="C42">
-        <v>376.25</v>
+        <v>384.5</v>
       </c>
       <c r="D42">
-        <v>1183.1</v>
+        <v>1212.6</v>
       </c>
       <c r="E42">
-        <v>161.325</v>
+        <v>158</v>
       </c>
       <c r="F42">
-        <v>45.89</v>
+        <v>50.03</v>
       </c>
       <c r="G42">
-        <v>2.64</v>
+        <v>2.734</v>
       </c>
       <c r="H42">
-        <v>125.1</v>
+        <v>121.55</v>
       </c>
       <c r="I42">
-        <v>735</v>
+        <v>818.45</v>
       </c>
       <c r="J42">
-        <v>1142.6</v>
+        <v>1186.7</v>
       </c>
       <c r="K42">
-        <v>16.581</v>
+        <v>16.513</v>
       </c>
       <c r="L42">
-        <v>511.75</v>
+        <v>517.5</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2325,37 +2328,37 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>59.63</v>
+        <v>47.6</v>
       </c>
       <c r="C43">
-        <v>362.5</v>
+        <v>376.25</v>
       </c>
       <c r="D43">
-        <v>1182.4</v>
+        <v>1183.1</v>
       </c>
       <c r="E43">
-        <v>159.5</v>
+        <v>161.325</v>
       </c>
       <c r="F43">
-        <v>41.94</v>
+        <v>45.89</v>
       </c>
       <c r="G43">
-        <v>2.751</v>
+        <v>2.64</v>
       </c>
       <c r="H43">
-        <v>109.4</v>
+        <v>125.1</v>
       </c>
       <c r="I43">
-        <v>776.5</v>
+        <v>735</v>
       </c>
       <c r="J43">
-        <v>1139.9</v>
+        <v>1142.6</v>
       </c>
       <c r="K43">
-        <v>16.124</v>
+        <v>16.581</v>
       </c>
       <c r="L43">
-        <v>467</v>
+        <v>511.75</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2363,37 +2366,37 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>60.3</v>
+        <v>59.63</v>
       </c>
       <c r="C44">
-        <v>351.5</v>
+        <v>362.5</v>
       </c>
       <c r="D44">
-        <v>1189.4</v>
+        <v>1182.4</v>
       </c>
       <c r="E44">
-        <v>152.325</v>
+        <v>159.5</v>
       </c>
       <c r="F44">
-        <v>41.89</v>
+        <v>41.94</v>
       </c>
       <c r="G44">
-        <v>2.642</v>
+        <v>2.751</v>
       </c>
       <c r="H44">
-        <v>114.25</v>
+        <v>109.4</v>
       </c>
       <c r="I44">
-        <v>776.75</v>
+        <v>776.5</v>
       </c>
       <c r="J44">
-        <v>1111</v>
+        <v>1139.9</v>
       </c>
       <c r="K44">
-        <v>16.684</v>
+        <v>16.124</v>
       </c>
       <c r="L44">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2401,37 +2404,37 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>59.47</v>
+        <v>60.3</v>
       </c>
       <c r="C45">
-        <v>414</v>
+        <v>351.5</v>
       </c>
       <c r="D45">
-        <v>1171.5</v>
+        <v>1189.4</v>
       </c>
       <c r="E45">
-        <v>147.85</v>
+        <v>152.325</v>
       </c>
       <c r="F45">
-        <v>42.13</v>
+        <v>41.89</v>
       </c>
       <c r="G45">
-        <v>2.832</v>
+        <v>2.642</v>
       </c>
       <c r="H45">
-        <v>114.9</v>
+        <v>114.25</v>
       </c>
       <c r="I45">
-        <v>671.65</v>
+        <v>776.75</v>
       </c>
       <c r="J45">
-        <v>1078.6</v>
+        <v>1111</v>
       </c>
       <c r="K45">
-        <v>15.551</v>
+        <v>16.684</v>
       </c>
       <c r="L45">
-        <v>614.75</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2439,37 +2442,37 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>47.12</v>
+        <v>59.47</v>
       </c>
       <c r="C46">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="D46">
-        <v>1094.9</v>
+        <v>1171.5</v>
       </c>
       <c r="E46">
-        <v>145.7</v>
+        <v>147.85</v>
       </c>
       <c r="F46">
-        <v>42.35</v>
+        <v>42.13</v>
       </c>
       <c r="G46">
-        <v>2.716</v>
+        <v>2.832</v>
       </c>
       <c r="H46">
-        <v>123.6</v>
+        <v>114.9</v>
       </c>
       <c r="I46">
-        <v>610.35</v>
+        <v>671.65</v>
       </c>
       <c r="J46">
-        <v>984</v>
+        <v>1078.6</v>
       </c>
       <c r="K46">
-        <v>14.746</v>
+        <v>15.551</v>
       </c>
       <c r="L46">
-        <v>499.25</v>
+        <v>614.75</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2477,37 +2480,37 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>49.2</v>
+        <v>47.12</v>
       </c>
       <c r="C47">
-        <v>363.75</v>
+        <v>371</v>
       </c>
       <c r="D47">
-        <v>1131.6</v>
+        <v>1094.9</v>
       </c>
       <c r="E47">
-        <v>145.5</v>
+        <v>145.7</v>
       </c>
       <c r="F47">
-        <v>40.88</v>
+        <v>42.35</v>
       </c>
       <c r="G47">
-        <v>2.689</v>
+        <v>2.716</v>
       </c>
       <c r="H47">
-        <v>129.6</v>
+        <v>123.6</v>
       </c>
       <c r="I47">
-        <v>601.55</v>
+        <v>610.35</v>
       </c>
       <c r="J47">
-        <v>1010.1</v>
+        <v>984</v>
       </c>
       <c r="K47">
-        <v>14.577</v>
+        <v>14.746</v>
       </c>
       <c r="L47">
-        <v>482.5</v>
+        <v>499.25</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2515,37 +2518,37 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>45.09</v>
+        <v>49.2</v>
       </c>
       <c r="C48">
-        <v>387.75</v>
+        <v>363.75</v>
       </c>
       <c r="D48">
-        <v>1115.5</v>
+        <v>1131.6</v>
       </c>
       <c r="E48">
-        <v>124.675</v>
+        <v>145.5</v>
       </c>
       <c r="F48">
-        <v>41.7</v>
+        <v>40.88</v>
       </c>
       <c r="G48">
-        <v>2.524</v>
+        <v>2.689</v>
       </c>
       <c r="H48">
-        <v>105.55</v>
+        <v>129.6</v>
       </c>
       <c r="I48">
-        <v>651</v>
+        <v>601.55</v>
       </c>
       <c r="J48">
-        <v>907.2</v>
+        <v>1010.1</v>
       </c>
       <c r="K48">
-        <v>14.513</v>
+        <v>14.577</v>
       </c>
       <c r="L48">
-        <v>512.75</v>
+        <v>482.5</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2553,37 +2556,37 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>46.59</v>
+        <v>45.09</v>
       </c>
       <c r="C49">
-        <v>382.25</v>
+        <v>387.75</v>
       </c>
       <c r="D49">
-        <v>1141.5</v>
+        <v>1115.5</v>
       </c>
       <c r="E49">
-        <v>139.25</v>
+        <v>124.675</v>
       </c>
       <c r="F49">
-        <v>39.45</v>
+        <v>41.7</v>
       </c>
       <c r="G49">
-        <v>2.321</v>
+        <v>2.524</v>
       </c>
       <c r="H49">
-        <v>134.65</v>
+        <v>105.55</v>
       </c>
       <c r="I49">
-        <v>677.05</v>
+        <v>651</v>
       </c>
       <c r="J49">
-        <v>988.6</v>
+        <v>907.2</v>
       </c>
       <c r="K49">
-        <v>15.566</v>
+        <v>14.513</v>
       </c>
       <c r="L49">
-        <v>522</v>
+        <v>512.75</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2591,37 +2594,37 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>41.65</v>
+        <v>46.59</v>
       </c>
       <c r="C50">
-        <v>365</v>
+        <v>382.25</v>
       </c>
       <c r="D50">
-        <v>1065.8</v>
+        <v>1141.5</v>
       </c>
       <c r="E50">
-        <v>130.05</v>
+        <v>139.25</v>
       </c>
       <c r="F50">
-        <v>38.65</v>
+        <v>39.45</v>
       </c>
       <c r="G50">
-        <v>2.235</v>
+        <v>2.321</v>
       </c>
       <c r="H50">
-        <v>141.75</v>
+        <v>134.65</v>
       </c>
       <c r="I50">
-        <v>541.95</v>
+        <v>677.05</v>
       </c>
       <c r="J50">
-        <v>832.3</v>
+        <v>988.6</v>
       </c>
       <c r="K50">
-        <v>14.05</v>
+        <v>15.566</v>
       </c>
       <c r="L50">
-        <v>460</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2629,37 +2632,37 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>37.04</v>
+        <v>41.65</v>
       </c>
       <c r="C51">
-        <v>358.75</v>
+        <v>365</v>
       </c>
       <c r="D51">
-        <v>1060.3</v>
+        <v>1065.8</v>
       </c>
       <c r="E51">
-        <v>135.8</v>
+        <v>130.05</v>
       </c>
       <c r="F51">
-        <v>33.13</v>
+        <v>38.65</v>
       </c>
       <c r="G51">
-        <v>2.337</v>
+        <v>2.235</v>
       </c>
       <c r="H51">
-        <v>140</v>
+        <v>141.75</v>
       </c>
       <c r="I51">
-        <v>560.8</v>
+        <v>541.95</v>
       </c>
       <c r="J51">
-        <v>891.7</v>
+        <v>832.3</v>
       </c>
       <c r="K51">
-        <v>13.775</v>
+        <v>14.05</v>
       </c>
       <c r="L51">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2667,37 +2670,37 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>33.62</v>
+        <v>37.04</v>
       </c>
       <c r="C52">
-        <v>372</v>
+        <v>358.75</v>
       </c>
       <c r="D52">
-        <v>1116.4</v>
+        <v>1060.3</v>
       </c>
       <c r="E52">
-        <v>135.3</v>
+        <v>135.8</v>
       </c>
       <c r="F52">
-        <v>30.59</v>
+        <v>33.13</v>
       </c>
       <c r="G52">
-        <v>2.298</v>
+        <v>2.337</v>
       </c>
       <c r="H52">
-        <v>132.4</v>
+        <v>140</v>
       </c>
       <c r="I52">
-        <v>497.5</v>
+        <v>560.8</v>
       </c>
       <c r="J52">
-        <v>872.3</v>
+        <v>891.7</v>
       </c>
       <c r="K52">
-        <v>14.229</v>
+        <v>13.775</v>
       </c>
       <c r="L52">
-        <v>479.25</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2705,37 +2708,37 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>33.75</v>
+        <v>33.62</v>
       </c>
       <c r="C53">
-        <v>353.5</v>
+        <v>372</v>
       </c>
       <c r="D53">
-        <v>1233.9</v>
+        <v>1116.4</v>
       </c>
       <c r="E53">
-        <v>139.5</v>
+        <v>135.3</v>
       </c>
       <c r="F53">
-        <v>29.34</v>
+        <v>30.59</v>
       </c>
       <c r="G53">
-        <v>1.711</v>
+        <v>2.298</v>
       </c>
       <c r="H53">
-        <v>121.4</v>
+        <v>132.4</v>
       </c>
       <c r="I53">
-        <v>495.6</v>
+        <v>497.5</v>
       </c>
       <c r="J53">
-        <v>933.7</v>
+        <v>872.3</v>
       </c>
       <c r="K53">
-        <v>14.896</v>
+        <v>14.229</v>
       </c>
       <c r="L53">
-        <v>445</v>
+        <v>479.25</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2743,37 +2746,37 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>38.34</v>
+        <v>33.75</v>
       </c>
       <c r="C54">
-        <v>351.5</v>
+        <v>353.5</v>
       </c>
       <c r="D54">
-        <v>1234.2</v>
+        <v>1233.9</v>
       </c>
       <c r="E54">
-        <v>132.925</v>
+        <v>139.5</v>
       </c>
       <c r="F54">
-        <v>28.02</v>
+        <v>29.34</v>
       </c>
       <c r="G54">
-        <v>1.959</v>
+        <v>1.711</v>
       </c>
       <c r="H54">
-        <v>147.2</v>
+        <v>121.4</v>
       </c>
       <c r="I54">
-        <v>563.05</v>
+        <v>495.6</v>
       </c>
       <c r="J54">
-        <v>976.6</v>
+        <v>933.7</v>
       </c>
       <c r="K54">
-        <v>15.46</v>
+        <v>14.896</v>
       </c>
       <c r="L54">
-        <v>473.5</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2781,37 +2784,37 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>45.92</v>
+        <v>38.34</v>
       </c>
       <c r="C55">
-        <v>390.25</v>
+        <v>351.5</v>
       </c>
       <c r="D55">
-        <v>1289.2</v>
+        <v>1234.2</v>
       </c>
       <c r="E55">
-        <v>123.1</v>
+        <v>132.925</v>
       </c>
       <c r="F55">
-        <v>28.61</v>
+        <v>28.02</v>
       </c>
       <c r="G55">
-        <v>2.178</v>
+        <v>1.959</v>
       </c>
       <c r="H55">
-        <v>124.55</v>
+        <v>147.2</v>
       </c>
       <c r="I55">
-        <v>627.9</v>
+        <v>563.05</v>
       </c>
       <c r="J55">
-        <v>1077.9</v>
+        <v>976.6</v>
       </c>
       <c r="K55">
-        <v>17.789</v>
+        <v>15.46</v>
       </c>
       <c r="L55">
-        <v>478</v>
+        <v>473.5</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2819,37 +2822,37 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>49.1</v>
+        <v>45.92</v>
       </c>
       <c r="C56">
-        <v>404.75</v>
+        <v>390.25</v>
       </c>
       <c r="D56">
-        <v>1214.8</v>
+        <v>1289.2</v>
       </c>
       <c r="E56">
-        <v>121.1</v>
+        <v>123.1</v>
       </c>
       <c r="F56">
-        <v>32.3</v>
+        <v>28.61</v>
       </c>
       <c r="G56">
-        <v>2.288</v>
+        <v>2.178</v>
       </c>
       <c r="H56">
-        <v>152.55</v>
+        <v>124.55</v>
       </c>
       <c r="I56">
-        <v>547.75</v>
+        <v>627.9</v>
       </c>
       <c r="J56">
-        <v>978.7</v>
+        <v>1077.9</v>
       </c>
       <c r="K56">
-        <v>15.972</v>
+        <v>17.789</v>
       </c>
       <c r="L56">
-        <v>464.5</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2857,37 +2860,37 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>48.33</v>
+        <v>49.1</v>
       </c>
       <c r="C57">
-        <v>358.75</v>
+        <v>404.75</v>
       </c>
       <c r="D57">
-        <v>1318.4</v>
+        <v>1214.8</v>
       </c>
       <c r="E57">
-        <v>120</v>
+        <v>121.1</v>
       </c>
       <c r="F57">
-        <v>34.71</v>
+        <v>32.3</v>
       </c>
       <c r="G57">
-        <v>2.924</v>
+        <v>2.288</v>
       </c>
       <c r="H57">
-        <v>177.15</v>
+        <v>152.55</v>
       </c>
       <c r="I57">
-        <v>598.15</v>
+        <v>547.75</v>
       </c>
       <c r="J57">
-        <v>1021.5</v>
+        <v>978.7</v>
       </c>
       <c r="K57">
-        <v>18.582</v>
+        <v>15.972</v>
       </c>
       <c r="L57">
-        <v>431.25</v>
+        <v>464.5</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2895,37 +2898,37 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>41.6</v>
+        <v>48.33</v>
       </c>
       <c r="C58">
-        <v>334.5</v>
+        <v>358.75</v>
       </c>
       <c r="D58">
-        <v>1349</v>
+        <v>1318.4</v>
       </c>
       <c r="E58">
-        <v>113.075</v>
+        <v>120</v>
       </c>
       <c r="F58">
-        <v>36.62</v>
+        <v>34.71</v>
       </c>
       <c r="G58">
-        <v>2.876</v>
+        <v>2.924</v>
       </c>
       <c r="H58">
-        <v>174.65</v>
+        <v>177.15</v>
       </c>
       <c r="I58">
-        <v>708.45</v>
+        <v>598.15</v>
       </c>
       <c r="J58">
-        <v>1147.3</v>
+        <v>1021.5</v>
       </c>
       <c r="K58">
-        <v>20.312</v>
+        <v>18.582</v>
       </c>
       <c r="L58">
-        <v>407.75</v>
+        <v>431.25</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2933,37 +2936,37 @@
         <v>69</v>
       </c>
       <c r="B59">
-        <v>44.7</v>
+        <v>41.6</v>
       </c>
       <c r="C59">
-        <v>301.5</v>
+        <v>334.5</v>
       </c>
       <c r="D59">
-        <v>1306.9</v>
+        <v>1349</v>
       </c>
       <c r="E59">
-        <v>111.95</v>
+        <v>113.075</v>
       </c>
       <c r="F59">
-        <v>32.05</v>
+        <v>36.62</v>
       </c>
       <c r="G59">
-        <v>2.887</v>
+        <v>2.876</v>
       </c>
       <c r="H59">
-        <v>182.1</v>
+        <v>174.65</v>
       </c>
       <c r="I59">
-        <v>668.7</v>
+        <v>708.45</v>
       </c>
       <c r="J59">
-        <v>1050.8</v>
+        <v>1147.3</v>
       </c>
       <c r="K59">
-        <v>18.622</v>
+        <v>20.312</v>
       </c>
       <c r="L59">
-        <v>361</v>
+        <v>407.75</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2971,37 +2974,37 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>48.24</v>
+        <v>44.7</v>
       </c>
       <c r="C60">
-        <v>336.75</v>
+        <v>301.5</v>
       </c>
       <c r="D60">
-        <v>1313.3</v>
+        <v>1306.9</v>
       </c>
       <c r="E60">
-        <v>98.90000000000001</v>
+        <v>111.95</v>
       </c>
       <c r="F60">
-        <v>41</v>
+        <v>32.05</v>
       </c>
       <c r="G60">
-        <v>2.906</v>
+        <v>2.887</v>
       </c>
       <c r="H60">
-        <v>205</v>
+        <v>182.1</v>
       </c>
       <c r="I60">
-        <v>720.5</v>
+        <v>668.7</v>
       </c>
       <c r="J60">
-        <v>1028.6</v>
+        <v>1050.8</v>
       </c>
       <c r="K60">
-        <v>19.139</v>
+        <v>18.622</v>
       </c>
       <c r="L60">
-        <v>402</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3009,37 +3012,37 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>46.86</v>
+        <v>48.24</v>
       </c>
       <c r="C61">
-        <v>354.75</v>
+        <v>336.75</v>
       </c>
       <c r="D61">
-        <v>1271.5</v>
+        <v>1313.3</v>
       </c>
       <c r="E61">
-        <v>103.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F61">
-        <v>50.92</v>
+        <v>41</v>
       </c>
       <c r="G61">
-        <v>3.026</v>
+        <v>2.906</v>
       </c>
       <c r="H61">
-        <v>221.95</v>
+        <v>205</v>
       </c>
       <c r="I61">
-        <v>617.45</v>
+        <v>720.5</v>
       </c>
       <c r="J61">
-        <v>975.8</v>
+        <v>1028.6</v>
       </c>
       <c r="K61">
-        <v>17.762</v>
+        <v>19.139</v>
       </c>
       <c r="L61">
-        <v>416.25</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3047,37 +3050,37 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>49.44</v>
+        <v>46.86</v>
       </c>
       <c r="C62">
-        <v>336.75</v>
+        <v>354.75</v>
       </c>
       <c r="D62">
-        <v>1170.8</v>
+        <v>1271.5</v>
       </c>
       <c r="E62">
-        <v>110.75</v>
+        <v>103.1</v>
       </c>
       <c r="F62">
-        <v>49.5</v>
+        <v>50.92</v>
       </c>
       <c r="G62">
-        <v>3.352</v>
+        <v>3.026</v>
       </c>
       <c r="H62">
-        <v>217.6</v>
+        <v>221.95</v>
       </c>
       <c r="I62">
-        <v>771.65</v>
+        <v>617.45</v>
       </c>
       <c r="J62">
-        <v>908.1</v>
+        <v>975.8</v>
       </c>
       <c r="K62">
-        <v>16.406</v>
+        <v>17.762</v>
       </c>
       <c r="L62">
-        <v>380.5</v>
+        <v>416.25</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3085,37 +3088,37 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>53.72</v>
+        <v>49.44</v>
       </c>
       <c r="C63">
-        <v>352</v>
+        <v>336.75</v>
       </c>
       <c r="D63">
-        <v>1150</v>
+        <v>1170.8</v>
       </c>
       <c r="E63">
-        <v>119</v>
+        <v>110.75</v>
       </c>
       <c r="F63">
-        <v>53.63</v>
+        <v>49.5</v>
       </c>
       <c r="G63">
-        <v>3.724</v>
+        <v>3.352</v>
       </c>
       <c r="H63">
-        <v>198.1</v>
+        <v>217.6</v>
       </c>
       <c r="I63">
-        <v>682.65</v>
+        <v>771.65</v>
       </c>
       <c r="J63">
-        <v>901.6</v>
+        <v>908.1</v>
       </c>
       <c r="K63">
-        <v>15.936</v>
+        <v>16.406</v>
       </c>
       <c r="L63">
-        <v>408</v>
+        <v>380.5</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3123,37 +3126,37 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>52.81</v>
+        <v>53.72</v>
       </c>
       <c r="C64">
-        <v>359.75</v>
+        <v>352</v>
       </c>
       <c r="D64">
-        <v>1208.6</v>
+        <v>1150</v>
       </c>
       <c r="E64">
-        <v>115.6</v>
+        <v>119</v>
       </c>
       <c r="F64">
-        <v>55.19</v>
+        <v>53.63</v>
       </c>
       <c r="G64">
-        <v>3.117</v>
+        <v>3.724</v>
       </c>
       <c r="H64">
-        <v>172.9</v>
+        <v>198.1</v>
       </c>
       <c r="I64">
-        <v>754.35</v>
+        <v>682.65</v>
       </c>
       <c r="J64">
-        <v>993</v>
+        <v>901.6</v>
       </c>
       <c r="K64">
-        <v>17.512</v>
+        <v>15.936</v>
       </c>
       <c r="L64">
-        <v>420.75</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3161,37 +3164,37 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>54.01</v>
+        <v>52.81</v>
       </c>
       <c r="C65">
-        <v>366.75</v>
+        <v>359.75</v>
       </c>
       <c r="D65">
-        <v>1252.6</v>
+        <v>1208.6</v>
       </c>
       <c r="E65">
-        <v>126.6</v>
+        <v>115.6</v>
       </c>
       <c r="F65">
-        <v>43.5</v>
+        <v>55.19</v>
       </c>
       <c r="G65">
-        <v>2.774</v>
+        <v>3.117</v>
       </c>
       <c r="H65">
-        <v>164.8</v>
+        <v>172.9</v>
       </c>
       <c r="I65">
-        <v>770.7</v>
+        <v>754.35</v>
       </c>
       <c r="J65">
-        <v>1029.5</v>
+        <v>993</v>
       </c>
       <c r="K65">
-        <v>18.42</v>
+        <v>17.512</v>
       </c>
       <c r="L65">
-        <v>424.75</v>
+        <v>420.75</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3199,37 +3202,37 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>50.6</v>
+        <v>54.01</v>
       </c>
       <c r="C66">
-        <v>364.25</v>
+        <v>366.75</v>
       </c>
       <c r="D66">
-        <v>1247.3</v>
+        <v>1252.6</v>
       </c>
       <c r="E66">
-        <v>119.95</v>
+        <v>126.6</v>
       </c>
       <c r="F66">
-        <v>39.65</v>
+        <v>43.5</v>
       </c>
       <c r="G66">
-        <v>3.19</v>
+        <v>2.774</v>
       </c>
       <c r="H66">
-        <v>157</v>
+        <v>164.8</v>
       </c>
       <c r="I66">
-        <v>798.15</v>
+        <v>770.7</v>
       </c>
       <c r="J66">
-        <v>948.2</v>
+        <v>1029.5</v>
       </c>
       <c r="K66">
-        <v>18.235</v>
+        <v>18.42</v>
       </c>
       <c r="L66">
-        <v>426.5</v>
+        <v>424.75</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3237,37 +3240,37 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>49.33</v>
+        <v>50.6</v>
       </c>
       <c r="C67">
-        <v>358</v>
+        <v>364.25</v>
       </c>
       <c r="D67">
-        <v>1266.1</v>
+        <v>1247.3</v>
       </c>
       <c r="E67">
-        <v>138</v>
+        <v>119.95</v>
       </c>
       <c r="F67">
-        <v>38.16</v>
+        <v>39.65</v>
       </c>
       <c r="G67">
-        <v>3.276</v>
+        <v>3.19</v>
       </c>
       <c r="H67">
-        <v>158.1</v>
+        <v>157</v>
       </c>
       <c r="I67">
-        <v>826.55</v>
+        <v>798.15</v>
       </c>
       <c r="J67">
-        <v>946.3</v>
+        <v>948.2</v>
       </c>
       <c r="K67">
-        <v>17.191</v>
+        <v>18.235</v>
       </c>
       <c r="L67">
-        <v>418.5</v>
+        <v>426.5</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3275,37 +3278,37 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>48.32</v>
+        <v>49.33</v>
       </c>
       <c r="C68">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D68">
-        <v>1272</v>
+        <v>1266.1</v>
       </c>
       <c r="E68">
-        <v>124.425</v>
+        <v>138</v>
       </c>
       <c r="F68">
-        <v>37.1</v>
+        <v>38.16</v>
       </c>
       <c r="G68">
-        <v>3.071</v>
+        <v>3.276</v>
       </c>
       <c r="H68">
-        <v>133.55</v>
+        <v>158.1</v>
       </c>
       <c r="I68">
-        <v>819.85</v>
+        <v>826.55</v>
       </c>
       <c r="J68">
-        <v>948.5</v>
+        <v>946.3</v>
       </c>
       <c r="K68">
-        <v>17.368</v>
+        <v>17.191</v>
       </c>
       <c r="L68">
-        <v>429.25</v>
+        <v>418.5</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3313,37 +3316,37 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>46.04</v>
+        <v>48.32</v>
       </c>
       <c r="C69">
-        <v>370.5</v>
+        <v>372</v>
       </c>
       <c r="D69">
-        <v>1240.7</v>
+        <v>1272</v>
       </c>
       <c r="E69">
-        <v>119.1</v>
+        <v>124.425</v>
       </c>
       <c r="F69">
-        <v>36.2</v>
+        <v>37.1</v>
       </c>
       <c r="G69">
-        <v>3.035</v>
+        <v>3.071</v>
       </c>
       <c r="H69">
-        <v>129.85</v>
+        <v>133.55</v>
       </c>
       <c r="I69">
-        <v>849</v>
+        <v>819.85</v>
       </c>
       <c r="J69">
-        <v>923.7</v>
+        <v>948.5</v>
       </c>
       <c r="K69">
-        <v>16.568</v>
+        <v>17.368</v>
       </c>
       <c r="L69">
-        <v>511</v>
+        <v>429.25</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3351,37 +3354,37 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>50.17</v>
+        <v>46.04</v>
       </c>
       <c r="C70">
-        <v>370.75</v>
+        <v>370.5</v>
       </c>
       <c r="D70">
-        <v>1266.6</v>
+        <v>1240.7</v>
       </c>
       <c r="E70">
-        <v>112</v>
+        <v>119.1</v>
       </c>
       <c r="F70">
-        <v>39.5</v>
+        <v>36.2</v>
       </c>
       <c r="G70">
-        <v>2.794</v>
+        <v>3.035</v>
       </c>
       <c r="H70">
-        <v>131.65</v>
+        <v>129.85</v>
       </c>
       <c r="I70">
-        <v>890.5</v>
+        <v>849</v>
       </c>
       <c r="J70">
-        <v>937.7</v>
+        <v>923.7</v>
       </c>
       <c r="K70">
-        <v>16.75</v>
+        <v>16.568</v>
       </c>
       <c r="L70">
-        <v>474.5</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3389,37 +3392,37 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>47.23</v>
+        <v>50.17</v>
       </c>
       <c r="C71">
-        <v>342.25</v>
+        <v>370.75</v>
       </c>
       <c r="D71">
-        <v>1316.2</v>
+        <v>1266.6</v>
       </c>
       <c r="E71">
-        <v>104.525</v>
+        <v>112</v>
       </c>
       <c r="F71">
-        <v>44.91</v>
+        <v>39.5</v>
       </c>
       <c r="G71">
-        <v>3.04</v>
+        <v>2.794</v>
       </c>
       <c r="H71">
-        <v>137.65</v>
+        <v>131.65</v>
       </c>
       <c r="I71">
-        <v>931.95</v>
+        <v>890.5</v>
       </c>
       <c r="J71">
-        <v>996.8</v>
+        <v>937.7</v>
       </c>
       <c r="K71">
-        <v>17.48</v>
+        <v>16.75</v>
       </c>
       <c r="L71">
-        <v>410.25</v>
+        <v>474.5</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3427,37 +3430,37 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>51.67</v>
+        <v>47.23</v>
       </c>
       <c r="C72">
-        <v>355.25</v>
+        <v>342.25</v>
       </c>
       <c r="D72">
-        <v>1281.5</v>
+        <v>1316.2</v>
       </c>
       <c r="E72">
-        <v>109.1</v>
+        <v>104.525</v>
       </c>
       <c r="F72">
-        <v>47.32</v>
+        <v>44.91</v>
       </c>
       <c r="G72">
-        <v>3.007</v>
+        <v>3.04</v>
       </c>
       <c r="H72">
-        <v>148.35</v>
+        <v>137.65</v>
       </c>
       <c r="I72">
-        <v>937.95</v>
+        <v>931.95</v>
       </c>
       <c r="J72">
-        <v>910.3</v>
+        <v>996.8</v>
       </c>
       <c r="K72">
-        <v>16.607</v>
+        <v>17.48</v>
       </c>
       <c r="L72">
-        <v>448.25</v>
+        <v>410.25</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3465,37 +3468,37 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>54.38</v>
+        <v>51.67</v>
       </c>
       <c r="C73">
-        <v>345.75</v>
+        <v>355.25</v>
       </c>
       <c r="D73">
-        <v>1267</v>
+        <v>1281.5</v>
       </c>
       <c r="E73">
-        <v>120.5</v>
+        <v>109.1</v>
       </c>
       <c r="F73">
-        <v>50.38</v>
+        <v>47.32</v>
       </c>
       <c r="G73">
-        <v>2.896</v>
+        <v>3.007</v>
       </c>
       <c r="H73">
-        <v>156.25</v>
+        <v>148.35</v>
       </c>
       <c r="I73">
-        <v>980.55</v>
+        <v>937.95</v>
       </c>
       <c r="J73">
-        <v>915.8</v>
+        <v>910.3</v>
       </c>
       <c r="K73">
-        <v>16.645</v>
+        <v>16.607</v>
       </c>
       <c r="L73">
-        <v>418.5</v>
+        <v>448.25</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3503,37 +3506,37 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>57.4</v>
+        <v>54.38</v>
       </c>
       <c r="C74">
-        <v>341.75</v>
+        <v>345.75</v>
       </c>
       <c r="D74">
-        <v>1273.2</v>
+        <v>1267</v>
       </c>
       <c r="E74">
-        <v>119.9</v>
+        <v>120.5</v>
       </c>
       <c r="F74">
-        <v>56.7</v>
+        <v>50.38</v>
       </c>
       <c r="G74">
-        <v>3.025</v>
+        <v>2.896</v>
       </c>
       <c r="H74">
-        <v>160.1</v>
+        <v>156.25</v>
       </c>
       <c r="I74">
-        <v>1006.6</v>
+        <v>980.55</v>
       </c>
       <c r="J74">
-        <v>941.3</v>
+        <v>915.8</v>
       </c>
       <c r="K74">
-        <v>16.382</v>
+        <v>16.645</v>
       </c>
       <c r="L74">
-        <v>409.25</v>
+        <v>418.5</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3541,37 +3544,37 @@
         <v>85</v>
       </c>
       <c r="B75">
-        <v>60.42</v>
+        <v>57.4</v>
       </c>
       <c r="C75">
-        <v>350.75</v>
+        <v>341.75</v>
       </c>
       <c r="D75">
-        <v>1306.3</v>
+        <v>1273.2</v>
       </c>
       <c r="E75">
-        <v>123</v>
+        <v>119.9</v>
       </c>
       <c r="F75">
-        <v>56.43</v>
+        <v>56.7</v>
       </c>
       <c r="G75">
-        <v>2.953</v>
+        <v>3.025</v>
       </c>
       <c r="H75">
-        <v>136</v>
+        <v>160.1</v>
       </c>
       <c r="I75">
-        <v>1073.75</v>
+        <v>1006.6</v>
       </c>
       <c r="J75">
-        <v>934.2</v>
+        <v>941.3</v>
       </c>
       <c r="K75">
-        <v>17.06</v>
+        <v>16.382</v>
       </c>
       <c r="L75">
-        <v>427</v>
+        <v>409.25</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3579,37 +3582,37 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>64.73</v>
+        <v>60.42</v>
       </c>
       <c r="C76">
-        <v>361.5</v>
+        <v>350.75</v>
       </c>
       <c r="D76">
-        <v>1339</v>
+        <v>1306.3</v>
       </c>
       <c r="E76">
-        <v>123.85</v>
+        <v>123</v>
       </c>
       <c r="F76">
-        <v>48.95</v>
+        <v>56.43</v>
       </c>
       <c r="G76">
-        <v>2.995</v>
+        <v>2.953</v>
       </c>
       <c r="H76">
-        <v>148.7</v>
+        <v>136</v>
       </c>
       <c r="I76">
-        <v>1027.5</v>
+        <v>1073.75</v>
       </c>
       <c r="J76">
-        <v>1001.3</v>
+        <v>934.2</v>
       </c>
       <c r="K76">
-        <v>17.204</v>
+        <v>17.06</v>
       </c>
       <c r="L76">
-        <v>451.75</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3617,37 +3620,37 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>61.64</v>
+        <v>64.73</v>
       </c>
       <c r="C77">
-        <v>374.5</v>
+        <v>361.5</v>
       </c>
       <c r="D77">
-        <v>1315.5</v>
+        <v>1339</v>
       </c>
       <c r="E77">
-        <v>127.5</v>
+        <v>123.85</v>
       </c>
       <c r="F77">
-        <v>46.67</v>
+        <v>48.95</v>
       </c>
       <c r="G77">
-        <v>2.667</v>
+        <v>2.995</v>
       </c>
       <c r="H77">
-        <v>143.4</v>
+        <v>148.7</v>
       </c>
       <c r="I77">
-        <v>1047.2</v>
+        <v>1027.5</v>
       </c>
       <c r="J77">
-        <v>986.6</v>
+        <v>1001.3</v>
       </c>
       <c r="K77">
-        <v>16.324</v>
+        <v>17.204</v>
       </c>
       <c r="L77">
-        <v>484.5</v>
+        <v>451.75</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3655,37 +3658,37 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>64.94</v>
+        <v>61.64</v>
       </c>
       <c r="C78">
-        <v>387.75</v>
+        <v>374.5</v>
       </c>
       <c r="D78">
-        <v>1322.8</v>
+        <v>1315.5</v>
       </c>
       <c r="E78">
-        <v>113.75</v>
+        <v>127.5</v>
       </c>
       <c r="F78">
-        <v>47.36</v>
+        <v>46.67</v>
       </c>
       <c r="G78">
-        <v>2.733</v>
+        <v>2.667</v>
       </c>
       <c r="H78">
-        <v>141.1</v>
+        <v>143.4</v>
       </c>
       <c r="I78">
-        <v>944.8</v>
+        <v>1047.2</v>
       </c>
       <c r="J78">
-        <v>927.3</v>
+        <v>986.6</v>
       </c>
       <c r="K78">
-        <v>16.223</v>
+        <v>16.324</v>
       </c>
       <c r="L78">
-        <v>451</v>
+        <v>484.5</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3693,37 +3696,37 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>68.56999999999999</v>
+        <v>64.94</v>
       </c>
       <c r="C79">
-        <v>392.5</v>
+        <v>387.75</v>
       </c>
       <c r="D79">
-        <v>1316.2</v>
+        <v>1322.8</v>
       </c>
       <c r="E79">
-        <v>123.75</v>
+        <v>113.75</v>
       </c>
       <c r="F79">
-        <v>53.09</v>
+        <v>47.36</v>
       </c>
       <c r="G79">
-        <v>2.763</v>
+        <v>2.733</v>
       </c>
       <c r="H79">
-        <v>154.95</v>
+        <v>141.1</v>
       </c>
       <c r="I79">
-        <v>962.75</v>
+        <v>944.8</v>
       </c>
       <c r="J79">
-        <v>899</v>
+        <v>927.3</v>
       </c>
       <c r="K79">
-        <v>16.312</v>
+        <v>16.223</v>
       </c>
       <c r="L79">
-        <v>512.5</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3731,37 +3734,37 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>67.04000000000001</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="C80">
-        <v>394</v>
+        <v>392.5</v>
       </c>
       <c r="D80">
-        <v>1300.1</v>
+        <v>1316.2</v>
       </c>
       <c r="E80">
-        <v>105.05</v>
+        <v>123.75</v>
       </c>
       <c r="F80">
-        <v>57.56</v>
+        <v>53.09</v>
       </c>
       <c r="G80">
-        <v>2.952</v>
+        <v>2.763</v>
       </c>
       <c r="H80">
-        <v>161.8</v>
+        <v>154.95</v>
       </c>
       <c r="I80">
-        <v>988.9</v>
+        <v>962.75</v>
       </c>
       <c r="J80">
-        <v>908.1</v>
+        <v>899</v>
       </c>
       <c r="K80">
-        <v>16.402</v>
+        <v>16.312</v>
       </c>
       <c r="L80">
-        <v>526.25</v>
+        <v>512.5</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3769,37 +3772,37 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>74.15000000000001</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C81">
-        <v>350.25</v>
+        <v>394</v>
       </c>
       <c r="D81">
-        <v>1251.3</v>
+        <v>1300.1</v>
       </c>
       <c r="E81">
-        <v>107</v>
+        <v>105.05</v>
       </c>
       <c r="F81">
-        <v>55.24</v>
+        <v>57.56</v>
       </c>
       <c r="G81">
-        <v>2.924</v>
+        <v>2.952</v>
       </c>
       <c r="H81">
-        <v>159.55</v>
+        <v>161.8</v>
       </c>
       <c r="I81">
-        <v>958.3</v>
+        <v>988.9</v>
       </c>
       <c r="J81">
-        <v>852.4</v>
+        <v>908.1</v>
       </c>
       <c r="K81">
-        <v>16.104</v>
+        <v>16.402</v>
       </c>
       <c r="L81">
-        <v>497.5</v>
+        <v>526.25</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3807,37 +3810,37 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>68.76000000000001</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="C82">
-        <v>372.25</v>
+        <v>350.25</v>
       </c>
       <c r="D82">
-        <v>1223.7</v>
+        <v>1251.3</v>
       </c>
       <c r="E82">
-        <v>107.675</v>
+        <v>107</v>
       </c>
       <c r="F82">
-        <v>58.55</v>
+        <v>55.24</v>
       </c>
       <c r="G82">
-        <v>2.782</v>
+        <v>2.924</v>
       </c>
       <c r="H82">
-        <v>167.4</v>
+        <v>159.55</v>
       </c>
       <c r="I82">
-        <v>939.9</v>
+        <v>958.3</v>
       </c>
       <c r="J82">
-        <v>840.9</v>
+        <v>852.4</v>
       </c>
       <c r="K82">
-        <v>15.5</v>
+        <v>16.104</v>
       </c>
       <c r="L82">
-        <v>553.75</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3845,37 +3848,37 @@
         <v>93</v>
       </c>
       <c r="B83">
-        <v>69.8</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="C83">
-        <v>351</v>
+        <v>372.25</v>
       </c>
       <c r="D83">
-        <v>1200.3</v>
+        <v>1223.7</v>
       </c>
       <c r="E83">
-        <v>106.8</v>
+        <v>107.675</v>
       </c>
       <c r="F83">
-        <v>67.79000000000001</v>
+        <v>58.55</v>
       </c>
       <c r="G83">
-        <v>2.916</v>
+        <v>2.782</v>
       </c>
       <c r="H83">
-        <v>157.85</v>
+        <v>167.4</v>
       </c>
       <c r="I83">
-        <v>980.3</v>
+        <v>939.9</v>
       </c>
       <c r="J83">
-        <v>785.9</v>
+        <v>840.9</v>
       </c>
       <c r="K83">
-        <v>14.438</v>
+        <v>15.5</v>
       </c>
       <c r="L83">
-        <v>518.5</v>
+        <v>553.75</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3883,37 +3886,37 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>73.25</v>
+        <v>69.8</v>
       </c>
       <c r="C84">
-        <v>356.25</v>
+        <v>351</v>
       </c>
       <c r="D84">
-        <v>1191.5</v>
+        <v>1200.3</v>
       </c>
       <c r="E84">
-        <v>113.45</v>
+        <v>106.8</v>
       </c>
       <c r="F84">
-        <v>75.06</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="G84">
-        <v>3.008</v>
+        <v>2.916</v>
       </c>
       <c r="H84">
-        <v>147.6</v>
+        <v>157.85</v>
       </c>
       <c r="I84">
-        <v>1090.8</v>
+        <v>980.3</v>
       </c>
       <c r="J84">
-        <v>818.7</v>
+        <v>785.9</v>
       </c>
       <c r="K84">
-        <v>14.623</v>
+        <v>14.438</v>
       </c>
       <c r="L84">
-        <v>509</v>
+        <v>518.5</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3921,37 +3924,37 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>65.31</v>
+        <v>73.25</v>
       </c>
       <c r="C85">
-        <v>363.25</v>
+        <v>356.25</v>
       </c>
       <c r="D85">
-        <v>1212.3</v>
+        <v>1191.5</v>
       </c>
       <c r="E85">
-        <v>115.85</v>
+        <v>113.45</v>
       </c>
       <c r="F85">
-        <v>68.18000000000001</v>
+        <v>75.06</v>
       </c>
       <c r="G85">
-        <v>3.261</v>
+        <v>3.008</v>
       </c>
       <c r="H85">
-        <v>135.7</v>
+        <v>147.6</v>
       </c>
       <c r="I85">
-        <v>1085.1</v>
+        <v>1090.8</v>
       </c>
       <c r="J85">
-        <v>839.4</v>
+        <v>818.7</v>
       </c>
       <c r="K85">
-        <v>14.229</v>
+        <v>14.623</v>
       </c>
       <c r="L85">
-        <v>500.5</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3959,37 +3962,37 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>50.93</v>
+        <v>65.31</v>
       </c>
       <c r="C86">
-        <v>366.5</v>
+        <v>363.25</v>
       </c>
       <c r="D86">
-        <v>1220.2</v>
+        <v>1212.3</v>
       </c>
       <c r="E86">
-        <v>116.925</v>
+        <v>115.85</v>
       </c>
       <c r="F86">
-        <v>67.54000000000001</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="G86">
-        <v>4.612</v>
+        <v>3.261</v>
       </c>
       <c r="H86">
-        <v>143.95</v>
+        <v>135.7</v>
       </c>
       <c r="I86">
-        <v>1168.6</v>
+        <v>1085.1</v>
       </c>
       <c r="J86">
-        <v>798</v>
+        <v>839.4</v>
       </c>
       <c r="K86">
-        <v>14.094</v>
+        <v>14.229</v>
       </c>
       <c r="L86">
-        <v>515.75</v>
+        <v>500.5</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3997,37 +4000,37 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>45.41</v>
+        <v>50.93</v>
       </c>
       <c r="C87">
-        <v>375</v>
+        <v>366.5</v>
       </c>
       <c r="D87">
-        <v>1278.3</v>
+        <v>1220.2</v>
       </c>
       <c r="E87">
-        <v>124.8</v>
+        <v>116.925</v>
       </c>
       <c r="F87">
-        <v>61.07</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="G87">
-        <v>2.94</v>
+        <v>4.612</v>
       </c>
       <c r="H87">
-        <v>125.15</v>
+        <v>143.95</v>
       </c>
       <c r="I87">
-        <v>1253.9</v>
+        <v>1168.6</v>
       </c>
       <c r="J87">
-        <v>795.9</v>
+        <v>798</v>
       </c>
       <c r="K87">
-        <v>15.433</v>
+        <v>14.094</v>
       </c>
       <c r="L87">
-        <v>503.25</v>
+        <v>515.75</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4035,37 +4038,37 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>53.79</v>
+        <v>45.41</v>
       </c>
       <c r="C88">
-        <v>376.5</v>
+        <v>375</v>
       </c>
       <c r="D88">
-        <v>1319.7</v>
+        <v>1278.3</v>
       </c>
       <c r="E88">
         <v>124.8</v>
       </c>
       <c r="F88">
-        <v>51.52</v>
+        <v>61.07</v>
       </c>
       <c r="G88">
-        <v>2.814</v>
+        <v>2.94</v>
       </c>
       <c r="H88">
-        <v>120.1</v>
+        <v>125.15</v>
       </c>
       <c r="I88">
-        <v>1338.3</v>
+        <v>1253.9</v>
       </c>
       <c r="J88">
-        <v>820.5</v>
+        <v>795.9</v>
       </c>
       <c r="K88">
-        <v>16.022</v>
+        <v>15.433</v>
       </c>
       <c r="L88">
-        <v>516.5</v>
+        <v>503.25</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4073,37 +4076,37 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>57.22</v>
+        <v>53.79</v>
       </c>
       <c r="C89">
-        <v>362</v>
+        <v>376.5</v>
       </c>
       <c r="D89">
-        <v>1312.8</v>
+        <v>1319.7</v>
       </c>
       <c r="E89">
-        <v>129.95</v>
+        <v>124.8</v>
       </c>
       <c r="F89">
-        <v>44.11</v>
+        <v>51.52</v>
       </c>
       <c r="G89">
-        <v>2.812</v>
+        <v>2.814</v>
       </c>
       <c r="H89">
-        <v>114.3</v>
+        <v>120.1</v>
       </c>
       <c r="I89">
-        <v>1532</v>
+        <v>1338.3</v>
       </c>
       <c r="J89">
-        <v>873</v>
+        <v>820.5</v>
       </c>
       <c r="K89">
-        <v>15.538</v>
+        <v>16.022</v>
       </c>
       <c r="L89">
-        <v>452.5</v>
+        <v>516.5</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4111,37 +4114,37 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>60.14</v>
+        <v>57.22</v>
       </c>
       <c r="C90">
-        <v>356.5</v>
+        <v>362</v>
       </c>
       <c r="D90">
-        <v>1293</v>
+        <v>1312.8</v>
       </c>
       <c r="E90">
-        <v>125.7</v>
+        <v>129.95</v>
       </c>
       <c r="F90">
-        <v>34.61</v>
+        <v>44.11</v>
       </c>
       <c r="G90">
-        <v>2.662</v>
+        <v>2.812</v>
       </c>
       <c r="H90">
-        <v>119.9</v>
+        <v>114.3</v>
       </c>
       <c r="I90">
-        <v>1345</v>
+        <v>1532</v>
       </c>
       <c r="J90">
-        <v>848.9</v>
+        <v>873</v>
       </c>
       <c r="K90">
-        <v>15.06</v>
+        <v>15.538</v>
       </c>
       <c r="L90">
-        <v>457.75</v>
+        <v>452.5</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4149,37 +4152,37 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>63.91</v>
+        <v>60.14</v>
       </c>
       <c r="C91">
-        <v>353.25</v>
+        <v>356.5</v>
       </c>
       <c r="D91">
-        <v>1282.8</v>
+        <v>1293</v>
       </c>
       <c r="E91">
-        <v>123.75</v>
+        <v>125.7</v>
       </c>
       <c r="F91">
-        <v>33.66</v>
+        <v>34.61</v>
       </c>
       <c r="G91">
-        <v>2.575</v>
+        <v>2.662</v>
       </c>
       <c r="H91">
-        <v>94.8</v>
+        <v>119.9</v>
       </c>
       <c r="I91">
-        <v>1387.4</v>
+        <v>1345</v>
       </c>
       <c r="J91">
-        <v>888.1</v>
+        <v>848.9</v>
       </c>
       <c r="K91">
-        <v>14.9</v>
+        <v>15.06</v>
       </c>
       <c r="L91">
-        <v>418.5</v>
+        <v>457.75</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4187,37 +4190,37 @@
         <v>102</v>
       </c>
       <c r="B92">
-        <v>53.5</v>
+        <v>63.91</v>
       </c>
       <c r="C92">
-        <v>427</v>
+        <v>353.25</v>
       </c>
       <c r="D92">
-        <v>1305.8</v>
+        <v>1282.8</v>
       </c>
       <c r="E92">
-        <v>108.475</v>
+        <v>123.75</v>
       </c>
       <c r="F92">
-        <v>27.57</v>
+        <v>33.66</v>
       </c>
       <c r="G92">
-        <v>2.454</v>
+        <v>2.575</v>
       </c>
       <c r="H92">
-        <v>108.4</v>
+        <v>94.8</v>
       </c>
       <c r="I92">
-        <v>1333.9</v>
+        <v>1387.4</v>
       </c>
       <c r="J92">
-        <v>792.6</v>
+        <v>888.1</v>
       </c>
       <c r="K92">
-        <v>14.53</v>
+        <v>14.9</v>
       </c>
       <c r="L92">
-        <v>503</v>
+        <v>418.5</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4225,37 +4228,37 @@
         <v>103</v>
       </c>
       <c r="B93">
-        <v>58.47</v>
+        <v>53.5</v>
       </c>
       <c r="C93">
-        <v>420.25</v>
+        <v>427</v>
       </c>
       <c r="D93">
-        <v>1409.7</v>
+        <v>1305.8</v>
       </c>
       <c r="E93">
-        <v>110.5</v>
+        <v>108.475</v>
       </c>
       <c r="F93">
-        <v>25.65</v>
+        <v>27.57</v>
       </c>
       <c r="G93">
-        <v>2.308</v>
+        <v>2.454</v>
       </c>
       <c r="H93">
-        <v>100.95</v>
+        <v>108.4</v>
       </c>
       <c r="I93">
-        <v>1532.4</v>
+        <v>1333.9</v>
       </c>
       <c r="J93">
-        <v>835.5</v>
+        <v>792.6</v>
       </c>
       <c r="K93">
-        <v>15.253</v>
+        <v>14.53</v>
       </c>
       <c r="L93">
-        <v>528</v>
+        <v>503</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4263,37 +4266,37 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>58.58</v>
+        <v>58.47</v>
       </c>
       <c r="C94">
-        <v>400.25</v>
+        <v>420.25</v>
       </c>
       <c r="D94">
-        <v>1426.1</v>
+        <v>1409.7</v>
       </c>
       <c r="E94">
-        <v>106.9</v>
+        <v>110.5</v>
       </c>
       <c r="F94">
-        <v>29.76</v>
+        <v>25.65</v>
       </c>
       <c r="G94">
-        <v>2.233</v>
+        <v>2.308</v>
       </c>
       <c r="H94">
-        <v>103.45</v>
+        <v>100.95</v>
       </c>
       <c r="I94">
-        <v>1519.2</v>
+        <v>1532.4</v>
       </c>
       <c r="J94">
-        <v>876.1</v>
+        <v>835.5</v>
       </c>
       <c r="K94">
-        <v>16.346</v>
+        <v>15.253</v>
       </c>
       <c r="L94">
-        <v>487.25</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4301,37 +4304,37 @@
         <v>105</v>
       </c>
       <c r="B95">
-        <v>55.1</v>
+        <v>58.58</v>
       </c>
       <c r="C95">
-        <v>358</v>
+        <v>400.25</v>
       </c>
       <c r="D95">
-        <v>1519.1</v>
+        <v>1426.1</v>
       </c>
       <c r="E95">
-        <v>105</v>
+        <v>106.9</v>
       </c>
       <c r="F95">
-        <v>33.03</v>
+        <v>29.76</v>
       </c>
       <c r="G95">
-        <v>2.285</v>
+        <v>2.233</v>
       </c>
       <c r="H95">
-        <v>100.5</v>
+        <v>103.45</v>
       </c>
       <c r="I95">
-        <v>1538.6</v>
+        <v>1519.2</v>
       </c>
       <c r="J95">
-        <v>929.6</v>
+        <v>876.1</v>
       </c>
       <c r="K95">
-        <v>18.185</v>
+        <v>16.346</v>
       </c>
       <c r="L95">
-        <v>451.25</v>
+        <v>487.25</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4339,37 +4342,37 @@
         <v>106</v>
       </c>
       <c r="B96">
-        <v>54.07</v>
+        <v>55.1</v>
       </c>
       <c r="C96">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="D96">
-        <v>1465.7</v>
+        <v>1519.1</v>
       </c>
       <c r="E96">
-        <v>104.575</v>
+        <v>105</v>
       </c>
       <c r="F96">
-        <v>43.18</v>
+        <v>33.03</v>
       </c>
       <c r="G96">
-        <v>2.33</v>
+        <v>2.285</v>
       </c>
       <c r="H96">
-        <v>99.75</v>
+        <v>100.5</v>
       </c>
       <c r="I96">
-        <v>1648.9</v>
+        <v>1538.6</v>
       </c>
       <c r="J96">
-        <v>883.4</v>
+        <v>929.6</v>
       </c>
       <c r="K96">
-        <v>16.898</v>
+        <v>18.185</v>
       </c>
       <c r="L96">
-        <v>495.75</v>
+        <v>451.25</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4377,37 +4380,37 @@
         <v>107</v>
       </c>
       <c r="B97">
-        <v>54.18</v>
+        <v>54.07</v>
       </c>
       <c r="C97">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D97">
-        <v>1511.4</v>
+        <v>1465.7</v>
       </c>
       <c r="E97">
-        <v>111.675</v>
+        <v>104.575</v>
       </c>
       <c r="F97">
-        <v>42.64</v>
+        <v>43.18</v>
       </c>
       <c r="G97">
-        <v>2.633</v>
+        <v>2.33</v>
       </c>
       <c r="H97">
-        <v>95.84999999999999</v>
+        <v>99.75</v>
       </c>
       <c r="I97">
-        <v>1758.1</v>
+        <v>1648.9</v>
       </c>
       <c r="J97">
-        <v>930</v>
+        <v>883.4</v>
       </c>
       <c r="K97">
-        <v>18.014</v>
+        <v>16.898</v>
       </c>
       <c r="L97">
-        <v>508.75</v>
+        <v>495.75</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4415,37 +4418,37 @@
         <v>108</v>
       </c>
       <c r="B98">
-        <v>55.17</v>
+        <v>54.18</v>
       </c>
       <c r="C98">
-        <v>371.25</v>
+        <v>390</v>
       </c>
       <c r="D98">
-        <v>1465.6</v>
+        <v>1511.4</v>
       </c>
       <c r="E98">
-        <v>121.2</v>
+        <v>111.675</v>
       </c>
       <c r="F98">
-        <v>42.76</v>
+        <v>42.64</v>
       </c>
       <c r="G98">
-        <v>2.281</v>
+        <v>2.633</v>
       </c>
       <c r="H98">
-        <v>98.59999999999999</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="I98">
-        <v>1815.6</v>
+        <v>1758.1</v>
       </c>
       <c r="J98">
-        <v>897.9</v>
+        <v>930</v>
       </c>
       <c r="K98">
-        <v>16.969</v>
+        <v>18.014</v>
       </c>
       <c r="L98">
-        <v>547.5</v>
+        <v>508.75</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4453,37 +4456,37 @@
         <v>109</v>
       </c>
       <c r="B99">
-        <v>61.06</v>
+        <v>55.17</v>
       </c>
       <c r="C99">
-        <v>387.75</v>
+        <v>371.25</v>
       </c>
       <c r="D99">
-        <v>1519.5</v>
+        <v>1465.6</v>
       </c>
       <c r="E99">
-        <v>124.7</v>
+        <v>121.2</v>
       </c>
       <c r="F99">
-        <v>31.07</v>
+        <v>42.76</v>
       </c>
       <c r="G99">
-        <v>2.189</v>
+        <v>2.281</v>
       </c>
       <c r="H99">
-        <v>97.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I99">
-        <v>1909.1</v>
+        <v>1815.6</v>
       </c>
       <c r="J99">
-        <v>971.4</v>
+        <v>897.9</v>
       </c>
       <c r="K99">
-        <v>17.828</v>
+        <v>16.969</v>
       </c>
       <c r="L99">
-        <v>558.75</v>
+        <v>547.5</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4491,37 +4494,37 @@
         <v>110</v>
       </c>
       <c r="B100">
-        <v>51.56</v>
+        <v>61.06</v>
       </c>
       <c r="C100">
-        <v>381.25</v>
+        <v>387.75</v>
       </c>
       <c r="D100">
-        <v>1582.9</v>
+        <v>1519.5</v>
       </c>
       <c r="E100">
-        <v>121.375</v>
+        <v>124.7</v>
       </c>
       <c r="F100">
-        <v>24.18</v>
+        <v>31.07</v>
       </c>
       <c r="G100">
-        <v>1.841</v>
+        <v>2.189</v>
       </c>
       <c r="H100">
-        <v>95.95</v>
+        <v>97.2</v>
       </c>
       <c r="I100">
-        <v>2246.6</v>
+        <v>1909.1</v>
       </c>
       <c r="J100">
-        <v>959.2</v>
+        <v>971.4</v>
       </c>
       <c r="K100">
-        <v>17.972</v>
+        <v>17.828</v>
       </c>
       <c r="L100">
-        <v>553.75</v>
+        <v>558.75</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4529,37 +4532,37 @@
         <v>111</v>
       </c>
       <c r="B101">
-        <v>44.76</v>
+        <v>51.56</v>
       </c>
       <c r="C101">
-        <v>366.5</v>
+        <v>381.25</v>
       </c>
       <c r="D101">
-        <v>1564.1</v>
+        <v>1582.9</v>
       </c>
       <c r="E101">
-        <v>112.7</v>
+        <v>121.375</v>
       </c>
       <c r="F101">
-        <v>21.7</v>
+        <v>24.18</v>
       </c>
       <c r="G101">
-        <v>1.684</v>
+        <v>1.841</v>
       </c>
       <c r="H101">
-        <v>101.85</v>
+        <v>95.95</v>
       </c>
       <c r="I101">
-        <v>2508.8</v>
+        <v>2246.6</v>
       </c>
       <c r="J101">
-        <v>862.8</v>
+        <v>959.2</v>
       </c>
       <c r="K101">
-        <v>16.387</v>
+        <v>17.972</v>
       </c>
       <c r="L101">
-        <v>529</v>
+        <v>553.75</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4567,37 +4570,37 @@
         <v>112</v>
       </c>
       <c r="B102">
-        <v>20.48</v>
+        <v>44.76</v>
       </c>
       <c r="C102">
-        <v>340.75</v>
+        <v>366.5</v>
       </c>
       <c r="D102">
-        <v>1583.4</v>
+        <v>1564.1</v>
       </c>
       <c r="E102">
-        <v>101.825</v>
+        <v>112.7</v>
       </c>
       <c r="F102">
-        <v>16.33</v>
+        <v>21.7</v>
       </c>
       <c r="G102">
-        <v>1.64</v>
+        <v>1.684</v>
       </c>
       <c r="H102">
-        <v>120.2</v>
+        <v>101.85</v>
       </c>
       <c r="I102">
-        <v>2333.3</v>
+        <v>2508.8</v>
       </c>
       <c r="J102">
-        <v>724.4</v>
+        <v>862.8</v>
       </c>
       <c r="K102">
-        <v>14.098</v>
+        <v>16.387</v>
       </c>
       <c r="L102">
-        <v>568.75</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4605,37 +4608,37 @@
         <v>113</v>
       </c>
       <c r="B103">
-        <v>18.84</v>
+        <v>20.48</v>
       </c>
       <c r="C103">
-        <v>311.5</v>
+        <v>340.75</v>
       </c>
       <c r="D103">
-        <v>1684.2</v>
+        <v>1583.4</v>
       </c>
       <c r="E103">
-        <v>90</v>
+        <v>101.825</v>
       </c>
       <c r="F103">
-        <v>13.87</v>
+        <v>16.33</v>
       </c>
       <c r="G103">
-        <v>1.949</v>
+        <v>1.64</v>
       </c>
       <c r="H103">
-        <v>108.3</v>
+        <v>120.2</v>
       </c>
       <c r="I103">
-        <v>1952.1</v>
+        <v>2333.3</v>
       </c>
       <c r="J103">
-        <v>809.5</v>
+        <v>724.4</v>
       </c>
       <c r="K103">
-        <v>14.898</v>
+        <v>14.098</v>
       </c>
       <c r="L103">
-        <v>529.75</v>
+        <v>568.75</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4643,37 +4646,37 @@
         <v>114</v>
       </c>
       <c r="B104">
-        <v>35.49</v>
+        <v>18.84</v>
       </c>
       <c r="C104">
-        <v>325.75</v>
+        <v>311.5</v>
       </c>
       <c r="D104">
-        <v>1736.9</v>
+        <v>1684.2</v>
       </c>
       <c r="E104">
-        <v>99.72499999999999</v>
+        <v>90</v>
       </c>
       <c r="F104">
-        <v>9.630000000000001</v>
+        <v>13.87</v>
       </c>
       <c r="G104">
-        <v>1.849</v>
+        <v>1.949</v>
       </c>
       <c r="H104">
-        <v>122.5</v>
+        <v>108.3</v>
       </c>
       <c r="I104">
-        <v>1934.5</v>
+        <v>1952.1</v>
       </c>
       <c r="J104">
-        <v>870.5</v>
+        <v>809.5</v>
       </c>
       <c r="K104">
-        <v>18.44</v>
+        <v>14.898</v>
       </c>
       <c r="L104">
-        <v>520.75</v>
+        <v>529.75</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4681,37 +4684,37 @@
         <v>115</v>
       </c>
       <c r="B105">
-        <v>39.27</v>
+        <v>35.49</v>
       </c>
       <c r="C105">
-        <v>338.5</v>
+        <v>325.75</v>
       </c>
       <c r="D105">
-        <v>1793</v>
+        <v>1736.9</v>
       </c>
       <c r="E105">
-        <v>91.65000000000001</v>
+        <v>99.72499999999999</v>
       </c>
       <c r="F105">
-        <v>16.22</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="G105">
-        <v>1.751</v>
+        <v>1.849</v>
       </c>
       <c r="H105">
-        <v>127.3</v>
+        <v>122.5</v>
       </c>
       <c r="I105">
-        <v>1945.4</v>
+        <v>1934.5</v>
       </c>
       <c r="J105">
-        <v>840.7</v>
+        <v>870.5</v>
       </c>
       <c r="K105">
-        <v>18.541</v>
+        <v>18.44</v>
       </c>
       <c r="L105">
-        <v>490</v>
+        <v>520.75</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4719,37 +4722,37 @@
         <v>116</v>
       </c>
       <c r="B106">
-        <v>40.27</v>
+        <v>39.27</v>
       </c>
       <c r="C106">
-        <v>316</v>
+        <v>338.5</v>
       </c>
       <c r="D106">
-        <v>1962.8</v>
+        <v>1793</v>
       </c>
       <c r="E106">
-        <v>102.825</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="F106">
-        <v>15.64</v>
+        <v>16.22</v>
       </c>
       <c r="G106">
-        <v>1.799</v>
+        <v>1.751</v>
       </c>
       <c r="H106">
-        <v>121.75</v>
+        <v>127.3</v>
       </c>
       <c r="I106">
-        <v>2135.3</v>
+        <v>1945.4</v>
       </c>
       <c r="J106">
-        <v>912.2</v>
+        <v>840.7</v>
       </c>
       <c r="K106">
-        <v>24.189</v>
+        <v>18.541</v>
       </c>
       <c r="L106">
-        <v>531.25</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4757,37 +4760,37 @@
         <v>117</v>
       </c>
       <c r="B107">
-        <v>42.61</v>
+        <v>40.27</v>
       </c>
       <c r="C107">
-        <v>348.5</v>
+        <v>316</v>
       </c>
       <c r="D107">
-        <v>1967.6</v>
+        <v>1962.8</v>
       </c>
       <c r="E107">
-        <v>104.5</v>
+        <v>102.825</v>
       </c>
       <c r="F107">
-        <v>28.95</v>
+        <v>15.64</v>
       </c>
       <c r="G107">
-        <v>2.63</v>
+        <v>1.799</v>
       </c>
       <c r="H107">
-        <v>113.8</v>
+        <v>121.75</v>
       </c>
       <c r="I107">
-        <v>2245.4</v>
+        <v>2135.3</v>
       </c>
       <c r="J107">
-        <v>935.7</v>
+        <v>912.2</v>
       </c>
       <c r="K107">
-        <v>28.437</v>
+        <v>24.189</v>
       </c>
       <c r="L107">
-        <v>544.25</v>
+        <v>531.25</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4795,37 +4798,37 @@
         <v>118</v>
       </c>
       <c r="B108">
-        <v>40.22</v>
+        <v>42.61</v>
       </c>
       <c r="C108">
-        <v>379</v>
+        <v>348.5</v>
       </c>
       <c r="D108">
-        <v>1887.5</v>
+        <v>1967.6</v>
       </c>
       <c r="E108">
-        <v>108.55</v>
+        <v>104.5</v>
       </c>
       <c r="F108">
-        <v>37</v>
+        <v>28.95</v>
       </c>
       <c r="G108">
-        <v>2.527</v>
+        <v>2.63</v>
       </c>
       <c r="H108">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="I108">
-        <v>2321.3</v>
+        <v>2245.4</v>
       </c>
       <c r="J108">
-        <v>901</v>
+        <v>935.7</v>
       </c>
       <c r="K108">
-        <v>23.433</v>
+        <v>28.437</v>
       </c>
       <c r="L108">
-        <v>578</v>
+        <v>544.25</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4833,37 +4836,37 @@
         <v>119</v>
       </c>
       <c r="B109">
-        <v>35.79</v>
+        <v>40.22</v>
       </c>
       <c r="C109">
-        <v>398.5</v>
+        <v>379</v>
       </c>
       <c r="D109">
-        <v>1877.4</v>
+        <v>1887.5</v>
       </c>
       <c r="E109">
-        <v>105.975</v>
+        <v>108.55</v>
       </c>
       <c r="F109">
-        <v>41.5</v>
+        <v>37</v>
       </c>
       <c r="G109">
-        <v>3.354</v>
+        <v>2.527</v>
       </c>
       <c r="H109">
-        <v>117.95</v>
+        <v>113.7</v>
       </c>
       <c r="I109">
-        <v>2210.3</v>
+        <v>2321.3</v>
       </c>
       <c r="J109">
-        <v>844.6</v>
+        <v>901</v>
       </c>
       <c r="K109">
-        <v>23.617</v>
+        <v>23.433</v>
       </c>
       <c r="L109">
-        <v>598.5</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4871,37 +4874,37 @@
         <v>120</v>
       </c>
       <c r="B110">
-        <v>45.34</v>
+        <v>35.79</v>
       </c>
       <c r="C110">
-        <v>419.75</v>
+        <v>398.5</v>
       </c>
       <c r="D110">
-        <v>1775.7</v>
+        <v>1877.4</v>
       </c>
       <c r="E110">
-        <v>110.175</v>
+        <v>105.975</v>
       </c>
       <c r="F110">
-        <v>43.67</v>
+        <v>41.5</v>
       </c>
       <c r="G110">
-        <v>2.882</v>
+        <v>3.354</v>
       </c>
       <c r="H110">
-        <v>128.75</v>
+        <v>117.95</v>
       </c>
       <c r="I110">
-        <v>2392.8</v>
+        <v>2210.3</v>
       </c>
       <c r="J110">
-        <v>964.1</v>
+        <v>844.6</v>
       </c>
       <c r="K110">
-        <v>22.534</v>
+        <v>23.617</v>
       </c>
       <c r="L110">
-        <v>580.25</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -4909,37 +4912,37 @@
         <v>121</v>
       </c>
       <c r="B111">
-        <v>48.52</v>
+        <v>45.34</v>
       </c>
       <c r="C111">
-        <v>484</v>
+        <v>419.75</v>
       </c>
       <c r="D111">
-        <v>1893.1</v>
+        <v>1775.7</v>
       </c>
       <c r="E111">
-        <v>112.95</v>
+        <v>110.175</v>
       </c>
       <c r="F111">
-        <v>56.4</v>
+        <v>43.67</v>
       </c>
       <c r="G111">
-        <v>2.539</v>
+        <v>2.882</v>
       </c>
       <c r="H111">
-        <v>123.25</v>
+        <v>128.75</v>
       </c>
       <c r="I111">
-        <v>2448.5</v>
+        <v>2392.8</v>
       </c>
       <c r="J111">
-        <v>1075.4</v>
+        <v>964.1</v>
       </c>
       <c r="K111">
-        <v>26.332</v>
+        <v>22.534</v>
       </c>
       <c r="L111">
-        <v>640.5</v>
+        <v>580.25</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -4947,37 +4950,37 @@
         <v>122</v>
       </c>
       <c r="B112">
-        <v>52.2</v>
+        <v>48.52</v>
       </c>
       <c r="C112">
-        <v>547</v>
+        <v>484</v>
       </c>
       <c r="D112">
-        <v>1847.3</v>
+        <v>1893.1</v>
       </c>
       <c r="E112">
-        <v>115.05</v>
+        <v>112.95</v>
       </c>
       <c r="F112">
-        <v>53.15</v>
+        <v>56.4</v>
       </c>
       <c r="G112">
-        <v>2.564</v>
+        <v>2.539</v>
       </c>
       <c r="H112">
-        <v>110.6</v>
+        <v>123.25</v>
       </c>
       <c r="I112">
-        <v>2207.1</v>
+        <v>2448.5</v>
       </c>
       <c r="J112">
-        <v>1075.8</v>
+        <v>1075.4</v>
       </c>
       <c r="K112">
-        <v>26.9</v>
+        <v>26.332</v>
       </c>
       <c r="L112">
-        <v>663</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -4985,37 +4988,37 @@
         <v>123</v>
       </c>
       <c r="B113">
-        <v>61.5</v>
+        <v>52.2</v>
       </c>
       <c r="C113">
-        <v>555.5</v>
+        <v>547</v>
       </c>
       <c r="D113">
-        <v>1728.1</v>
+        <v>1847.3</v>
       </c>
       <c r="E113">
-        <v>113.1</v>
+        <v>115.05</v>
       </c>
       <c r="F113">
-        <v>39.79</v>
+        <v>53.15</v>
       </c>
       <c r="G113">
-        <v>2.771</v>
+        <v>2.564</v>
       </c>
       <c r="H113">
-        <v>106.75</v>
+        <v>110.6</v>
       </c>
       <c r="I113">
-        <v>2310.1</v>
+        <v>2207.1</v>
       </c>
       <c r="J113">
-        <v>1183.5</v>
+        <v>1075.8</v>
       </c>
       <c r="K113">
-        <v>26.402</v>
+        <v>26.9</v>
       </c>
       <c r="L113">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5023,37 +5026,37 @@
         <v>124</v>
       </c>
       <c r="B114">
-        <v>59.16</v>
+        <v>61.5</v>
       </c>
       <c r="C114">
-        <v>564.25</v>
+        <v>555.5</v>
       </c>
       <c r="D114">
-        <v>1713.8</v>
+        <v>1728.1</v>
       </c>
       <c r="E114">
-        <v>120.975</v>
+        <v>113.1</v>
       </c>
       <c r="F114">
-        <v>46.8</v>
+        <v>39.79</v>
       </c>
       <c r="G114">
-        <v>2.608</v>
+        <v>2.771</v>
       </c>
       <c r="H114">
-        <v>110.6</v>
+        <v>106.75</v>
       </c>
       <c r="I114">
-        <v>2617.5</v>
+        <v>2310.1</v>
       </c>
       <c r="J114">
-        <v>1188.5</v>
+        <v>1183.5</v>
       </c>
       <c r="K114">
-        <v>24.517</v>
+        <v>26.402</v>
       </c>
       <c r="L114">
-        <v>618</v>
+        <v>655</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5061,37 +5064,37 @@
         <v>125</v>
       </c>
       <c r="B115">
-        <v>63.58</v>
+        <v>59.16</v>
       </c>
       <c r="C115">
-        <v>740</v>
+        <v>564.25</v>
       </c>
       <c r="D115">
-        <v>1767.3</v>
+        <v>1713.8</v>
       </c>
       <c r="E115">
-        <v>116</v>
+        <v>120.975</v>
       </c>
       <c r="F115">
-        <v>60.24</v>
+        <v>46.8</v>
       </c>
       <c r="G115">
-        <v>2.931</v>
+        <v>2.608</v>
       </c>
       <c r="H115">
-        <v>109.55</v>
+        <v>110.6</v>
       </c>
       <c r="I115">
-        <v>2957.7</v>
+        <v>2617.5</v>
       </c>
       <c r="J115">
-        <v>1203</v>
+        <v>1188.5</v>
       </c>
       <c r="K115">
-        <v>25.853</v>
+        <v>24.517</v>
       </c>
       <c r="L115">
-        <v>742.5</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5099,37 +5102,37 @@
         <v>126</v>
       </c>
       <c r="B116">
-        <v>66.31999999999999</v>
+        <v>63.58</v>
       </c>
       <c r="C116">
-        <v>656.75</v>
+        <v>740</v>
       </c>
       <c r="D116">
-        <v>1902.5</v>
+        <v>1767.3</v>
       </c>
       <c r="E116">
-        <v>115.875</v>
+        <v>116</v>
       </c>
       <c r="F116">
-        <v>60.68</v>
+        <v>60.24</v>
       </c>
       <c r="G116">
-        <v>2.986</v>
+        <v>2.931</v>
       </c>
       <c r="H116">
-        <v>118.65</v>
+        <v>109.55</v>
       </c>
       <c r="I116">
-        <v>2824.2</v>
+        <v>2957.7</v>
       </c>
       <c r="J116">
-        <v>1180.8</v>
+        <v>1203</v>
       </c>
       <c r="K116">
-        <v>27.993</v>
+        <v>25.853</v>
       </c>
       <c r="L116">
-        <v>663.5</v>
+        <v>742.5</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5137,37 +5140,37 @@
         <v>127</v>
       </c>
       <c r="B117">
-        <v>73.47</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C117">
-        <v>720</v>
+        <v>656.75</v>
       </c>
       <c r="D117">
-        <v>1770.8</v>
+        <v>1902.5</v>
       </c>
       <c r="E117">
-        <v>122.5</v>
+        <v>115.875</v>
       </c>
       <c r="F117">
-        <v>85.87</v>
+        <v>60.68</v>
       </c>
       <c r="G117">
-        <v>3.65</v>
+        <v>2.986</v>
       </c>
       <c r="H117">
-        <v>118.55</v>
+        <v>118.65</v>
       </c>
       <c r="I117">
-        <v>2777.4</v>
+        <v>2824.2</v>
       </c>
       <c r="J117">
-        <v>1070.5</v>
+        <v>1180.8</v>
       </c>
       <c r="K117">
-        <v>26.165</v>
+        <v>27.993</v>
       </c>
       <c r="L117">
-        <v>671.5</v>
+        <v>663.5</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5175,37 +5178,37 @@
         <v>128</v>
       </c>
       <c r="B118">
-        <v>73.95</v>
+        <v>73.47</v>
       </c>
       <c r="C118">
-        <v>547</v>
+        <v>720</v>
       </c>
       <c r="D118">
-        <v>1812.6</v>
+        <v>1770.8</v>
       </c>
       <c r="E118">
-        <v>122.075</v>
+        <v>122.5</v>
       </c>
       <c r="F118">
-        <v>103.75</v>
+        <v>85.87</v>
       </c>
       <c r="G118">
-        <v>3.914</v>
+        <v>3.65</v>
       </c>
       <c r="H118">
-        <v>132.95</v>
+        <v>118.55</v>
       </c>
       <c r="I118">
-        <v>2655.8</v>
+        <v>2777.4</v>
       </c>
       <c r="J118">
-        <v>1046.9</v>
+        <v>1070.5</v>
       </c>
       <c r="K118">
-        <v>25.528</v>
+        <v>26.165</v>
       </c>
       <c r="L118">
-        <v>703.75</v>
+        <v>671.5</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5213,37 +5216,37 @@
         <v>129</v>
       </c>
       <c r="B119">
-        <v>68.5</v>
+        <v>73.95</v>
       </c>
       <c r="C119">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D119">
-        <v>1815</v>
+        <v>1812.6</v>
       </c>
       <c r="E119">
-        <v>118.95</v>
+        <v>122.075</v>
       </c>
       <c r="F119">
-        <v>127.71</v>
+        <v>103.75</v>
       </c>
       <c r="G119">
-        <v>4.377</v>
+        <v>3.914</v>
       </c>
       <c r="H119">
-        <v>134.55</v>
+        <v>132.95</v>
       </c>
       <c r="I119">
-        <v>2468.3</v>
+        <v>2655.8</v>
       </c>
       <c r="J119">
-        <v>1013.9</v>
+        <v>1046.9</v>
       </c>
       <c r="K119">
-        <v>23.96</v>
+        <v>25.528</v>
       </c>
       <c r="L119">
-        <v>706.75</v>
+        <v>703.75</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5251,37 +5254,37 @@
         <v>130</v>
       </c>
       <c r="B120">
-        <v>75.03</v>
+        <v>68.5</v>
       </c>
       <c r="C120">
-        <v>536.75</v>
+        <v>534</v>
       </c>
       <c r="D120">
-        <v>1755.3</v>
+        <v>1815</v>
       </c>
       <c r="E120">
-        <v>120.575</v>
+        <v>118.95</v>
       </c>
       <c r="F120">
-        <v>251.18</v>
+        <v>127.71</v>
       </c>
       <c r="G120">
-        <v>5.867</v>
+        <v>4.377</v>
       </c>
       <c r="H120">
-        <v>132.5</v>
+        <v>134.55</v>
       </c>
       <c r="I120">
-        <v>1902.6</v>
+        <v>2468.3</v>
       </c>
       <c r="J120">
-        <v>960.9</v>
+        <v>1013.9</v>
       </c>
       <c r="K120">
-        <v>22.021</v>
+        <v>23.96</v>
       </c>
       <c r="L120">
-        <v>725.5</v>
+        <v>706.75</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5289,37 +5292,37 @@
         <v>131</v>
       </c>
       <c r="B121">
-        <v>83.56999999999999</v>
+        <v>75.03</v>
       </c>
       <c r="C121">
-        <v>568.25</v>
+        <v>536.75</v>
       </c>
       <c r="D121">
-        <v>1783</v>
+        <v>1755.3</v>
       </c>
       <c r="E121">
-        <v>127.375</v>
+        <v>120.575</v>
       </c>
       <c r="F121">
-        <v>165.98</v>
+        <v>251.18</v>
       </c>
       <c r="G121">
-        <v>5.426</v>
+        <v>5.867</v>
       </c>
       <c r="H121">
-        <v>120.35</v>
+        <v>132.5</v>
       </c>
       <c r="I121">
-        <v>1986.1</v>
+        <v>1902.6</v>
       </c>
       <c r="J121">
-        <v>1019.6</v>
+        <v>960.9</v>
       </c>
       <c r="K121">
-        <v>23.945</v>
+        <v>22.021</v>
       </c>
       <c r="L121">
-        <v>772.75</v>
+        <v>725.5</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5327,37 +5330,37 @@
         <v>132</v>
       </c>
       <c r="B122">
-        <v>66.18000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C122">
-        <v>567</v>
+        <v>568.25</v>
       </c>
       <c r="D122">
-        <v>1773.6</v>
+        <v>1783</v>
       </c>
       <c r="E122">
-        <v>135.875</v>
+        <v>127.375</v>
       </c>
       <c r="F122">
-        <v>238.31</v>
+        <v>165.98</v>
       </c>
       <c r="G122">
-        <v>4.567</v>
+        <v>5.426</v>
       </c>
       <c r="H122">
-        <v>122.9</v>
+        <v>120.35</v>
       </c>
       <c r="I122">
-        <v>1703.1</v>
+        <v>1986.1</v>
       </c>
       <c r="J122">
-        <v>926.6</v>
+        <v>1019.6</v>
       </c>
       <c r="K122">
-        <v>22.765</v>
+        <v>23.945</v>
       </c>
       <c r="L122">
-        <v>773.75</v>
+        <v>772.75</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5365,36 +5368,74 @@
         <v>133</v>
       </c>
       <c r="B123">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="C123">
+        <v>567</v>
+      </c>
+      <c r="D123">
+        <v>1773.6</v>
+      </c>
+      <c r="E123">
+        <v>135.875</v>
+      </c>
+      <c r="F123">
+        <v>238.31</v>
+      </c>
+      <c r="G123">
+        <v>4.567</v>
+      </c>
+      <c r="H123">
+        <v>122.9</v>
+      </c>
+      <c r="I123">
+        <v>1703.1</v>
+      </c>
+      <c r="J123">
+        <v>926.6</v>
+      </c>
+      <c r="K123">
+        <v>22.765</v>
+      </c>
+      <c r="L123">
+        <v>773.75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124">
         <v>75.20999999999999</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>593.25</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>1827.5</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>138.9</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>170.64</v>
       </c>
-      <c r="G123">
+      <c r="G124">
         <v>3.73</v>
       </c>
-      <c r="H123">
+      <c r="H124">
         <v>146.3</v>
       </c>
-      <c r="I123">
+      <c r="I124">
         <v>1908.1</v>
       </c>
-      <c r="J123">
+      <c r="J124">
         <v>964.4</v>
       </c>
-      <c r="K123">
+      <c r="K124">
         <v>23.328</v>
       </c>
-      <c r="L123">
+      <c r="L124">
         <v>770.75</v>
       </c>
     </row>
